--- a/core/api/tests/files/Test_BP2025-2027_invalid_template.xlsx
+++ b/core/api/tests/files/Test_BP2025-2027_invalid_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="644">
   <si>
     <t>Sort Order</t>
   </si>
@@ -141,13 +141,10 @@
     <t>HCFC-substance</t>
   </si>
   <si>
-    <t>not_a_number</t>
+    <t>1</t>
   </si>
   <si>
     <t>KPP1</t>
-  </si>
-  <si>
-    <t>Not found</t>
   </si>
   <si>
     <t>Planu</t>
@@ -3537,13 +3534,13 @@
         <v>9</v>
       </c>
       <c r="K2" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s" s="4">
         <v>42</v>
       </c>
-      <c r="L2" t="s" s="4">
+      <c r="M2" t="s" s="4">
         <v>43</v>
-      </c>
-      <c r="M2" t="s" s="4">
-        <v>44</v>
       </c>
       <c r="N2" s="6">
         <v>100</v>
@@ -3594,19 +3591,19 @@
         <v>400</v>
       </c>
       <c r="AD2" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="AE2" t="s" s="4">
         <v>45</v>
       </c>
-      <c r="AE2" t="s" s="4">
+      <c r="AF2" t="s" s="8">
         <v>46</v>
       </c>
-      <c r="AF2" t="s" s="8">
+      <c r="AG2" t="s" s="8">
         <v>47</v>
       </c>
-      <c r="AG2" t="s" s="8">
+      <c r="AH2" t="s" s="4">
         <v>48</v>
-      </c>
-      <c r="AH2" t="s" s="4">
-        <v>49</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
@@ -27048,10 +27045,10 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="20"/>
@@ -27059,10 +27056,10 @@
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" t="s" s="4">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s" s="4">
         <v>52</v>
-      </c>
-      <c r="B2" t="s" s="4">
-        <v>53</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="20"/>
@@ -27070,10 +27067,10 @@
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s" s="4">
         <v>54</v>
-      </c>
-      <c r="B3" t="s" s="4">
-        <v>55</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="20"/>
@@ -27081,10 +27078,10 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" t="s" s="4">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s" s="4">
         <v>56</v>
-      </c>
-      <c r="B4" t="s" s="4">
-        <v>57</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="20"/>
@@ -27092,10 +27089,10 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s" s="4">
         <v>58</v>
-      </c>
-      <c r="B5" t="s" s="4">
-        <v>59</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="20"/>
@@ -27103,10 +27100,10 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" t="s" s="4">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s" s="4">
         <v>60</v>
-      </c>
-      <c r="B6" t="s" s="4">
-        <v>61</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="20"/>
@@ -27114,10 +27111,10 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s" s="4">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s" s="4">
         <v>62</v>
-      </c>
-      <c r="B7" t="s" s="4">
-        <v>63</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="20"/>
@@ -27125,10 +27122,10 @@
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" t="s" s="4">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s" s="4">
         <v>64</v>
-      </c>
-      <c r="B8" t="s" s="4">
-        <v>65</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="20"/>
@@ -27136,10 +27133,10 @@
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" t="s" s="4">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s" s="4">
         <v>66</v>
-      </c>
-      <c r="B9" t="s" s="4">
-        <v>67</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="20"/>
@@ -27147,10 +27144,10 @@
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" t="s" s="4">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s" s="4">
         <v>68</v>
-      </c>
-      <c r="B10" t="s" s="4">
-        <v>69</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="20"/>
@@ -27158,10 +27155,10 @@
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" t="s" s="4">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s" s="4">
         <v>70</v>
-      </c>
-      <c r="B11" t="s" s="4">
-        <v>71</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="20"/>
@@ -27169,10 +27166,10 @@
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" t="s" s="4">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s" s="4">
         <v>72</v>
-      </c>
-      <c r="B12" t="s" s="4">
-        <v>73</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="20"/>
@@ -27180,10 +27177,10 @@
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" t="s" s="4">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s" s="4">
         <v>74</v>
-      </c>
-      <c r="B13" t="s" s="4">
-        <v>75</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="20"/>
@@ -27191,10 +27188,10 @@
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" t="s" s="4">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s" s="4">
         <v>76</v>
-      </c>
-      <c r="B14" t="s" s="4">
-        <v>77</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="20"/>
@@ -27202,10 +27199,10 @@
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" t="s" s="4">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s" s="4">
         <v>78</v>
-      </c>
-      <c r="B15" t="s" s="4">
-        <v>79</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="20"/>
@@ -27213,10 +27210,10 @@
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="A16" t="s" s="4">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s" s="4">
         <v>80</v>
-      </c>
-      <c r="B16" t="s" s="4">
-        <v>81</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="20"/>
@@ -27224,10 +27221,10 @@
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s" s="4">
         <v>82</v>
-      </c>
-      <c r="B17" t="s" s="4">
-        <v>83</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="20"/>
@@ -27235,10 +27232,10 @@
     </row>
     <row r="18" ht="30" customHeight="1">
       <c r="A18" t="s" s="4">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s" s="4">
         <v>84</v>
-      </c>
-      <c r="B18" t="s" s="4">
-        <v>85</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="20"/>
@@ -27246,10 +27243,10 @@
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" t="s" s="4">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s" s="4">
         <v>86</v>
-      </c>
-      <c r="B19" t="s" s="4">
-        <v>87</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="20"/>
@@ -27257,10 +27254,10 @@
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" t="s" s="4">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s" s="4">
         <v>88</v>
-      </c>
-      <c r="B20" t="s" s="4">
-        <v>89</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="20"/>
@@ -27268,10 +27265,10 @@
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" t="s" s="4">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s" s="4">
         <v>90</v>
-      </c>
-      <c r="B21" t="s" s="4">
-        <v>91</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="20"/>
@@ -27279,10 +27276,10 @@
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s" s="4">
         <v>92</v>
-      </c>
-      <c r="B22" t="s" s="4">
-        <v>93</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="20"/>
@@ -27290,10 +27287,10 @@
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s" s="4">
         <v>94</v>
-      </c>
-      <c r="B23" t="s" s="4">
-        <v>95</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="20"/>
@@ -27301,10 +27298,10 @@
     </row>
     <row r="24" ht="30" customHeight="1">
       <c r="A24" t="s" s="4">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s" s="4">
         <v>96</v>
-      </c>
-      <c r="B24" t="s" s="4">
-        <v>97</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="20"/>
@@ -27312,10 +27309,10 @@
     </row>
     <row r="25" ht="30" customHeight="1">
       <c r="A25" t="s" s="4">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s" s="4">
         <v>98</v>
-      </c>
-      <c r="B25" t="s" s="4">
-        <v>99</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="20"/>
@@ -27323,10 +27320,10 @@
     </row>
     <row r="26" ht="30" customHeight="1">
       <c r="A26" t="s" s="4">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s" s="4">
         <v>100</v>
-      </c>
-      <c r="B26" t="s" s="4">
-        <v>101</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="20"/>
@@ -27334,10 +27331,10 @@
     </row>
     <row r="27" ht="30" customHeight="1">
       <c r="A27" t="s" s="4">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s" s="4">
         <v>102</v>
-      </c>
-      <c r="B27" t="s" s="4">
-        <v>103</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="20"/>
@@ -27345,10 +27342,10 @@
     </row>
     <row r="28" ht="30" customHeight="1">
       <c r="A28" t="s" s="4">
+        <v>103</v>
+      </c>
+      <c r="B28" t="s" s="4">
         <v>104</v>
-      </c>
-      <c r="B28" t="s" s="4">
-        <v>105</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="20"/>
@@ -27356,10 +27353,10 @@
     </row>
     <row r="29" ht="30" customHeight="1">
       <c r="A29" t="s" s="4">
+        <v>105</v>
+      </c>
+      <c r="B29" t="s" s="4">
         <v>106</v>
-      </c>
-      <c r="B29" t="s" s="4">
-        <v>107</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="20"/>
@@ -27367,10 +27364,10 @@
     </row>
     <row r="30" ht="30" customHeight="1">
       <c r="A30" t="s" s="4">
+        <v>107</v>
+      </c>
+      <c r="B30" t="s" s="4">
         <v>108</v>
-      </c>
-      <c r="B30" t="s" s="4">
-        <v>109</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="20"/>
@@ -27378,10 +27375,10 @@
     </row>
     <row r="31" ht="30" customHeight="1">
       <c r="A31" t="s" s="4">
+        <v>109</v>
+      </c>
+      <c r="B31" t="s" s="4">
         <v>110</v>
-      </c>
-      <c r="B31" t="s" s="4">
-        <v>111</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="20"/>
@@ -27389,10 +27386,10 @@
     </row>
     <row r="32" ht="30" customHeight="1">
       <c r="A32" t="s" s="4">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s" s="4">
         <v>112</v>
-      </c>
-      <c r="B32" t="s" s="4">
-        <v>113</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="20"/>
@@ -27400,10 +27397,10 @@
     </row>
     <row r="33" ht="30" customHeight="1">
       <c r="A33" t="s" s="4">
+        <v>113</v>
+      </c>
+      <c r="B33" t="s" s="4">
         <v>114</v>
-      </c>
-      <c r="B33" t="s" s="4">
-        <v>115</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="20"/>
@@ -27411,10 +27408,10 @@
     </row>
     <row r="34" ht="30" customHeight="1">
       <c r="A34" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="B34" t="s" s="4">
         <v>116</v>
-      </c>
-      <c r="B34" t="s" s="4">
-        <v>117</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="20"/>
@@ -27422,10 +27419,10 @@
     </row>
     <row r="35" ht="30" customHeight="1">
       <c r="A35" t="s" s="4">
+        <v>117</v>
+      </c>
+      <c r="B35" t="s" s="4">
         <v>118</v>
-      </c>
-      <c r="B35" t="s" s="4">
-        <v>119</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="20"/>
@@ -27433,10 +27430,10 @@
     </row>
     <row r="36" ht="30" customHeight="1">
       <c r="A36" t="s" s="4">
+        <v>119</v>
+      </c>
+      <c r="B36" t="s" s="4">
         <v>120</v>
-      </c>
-      <c r="B36" t="s" s="4">
-        <v>121</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="20"/>
@@ -27444,10 +27441,10 @@
     </row>
     <row r="37" ht="30" customHeight="1">
       <c r="A37" t="s" s="4">
+        <v>121</v>
+      </c>
+      <c r="B37" t="s" s="4">
         <v>122</v>
-      </c>
-      <c r="B37" t="s" s="4">
-        <v>123</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="20"/>
@@ -27455,10 +27452,10 @@
     </row>
     <row r="38" ht="30" customHeight="1">
       <c r="A38" t="s" s="4">
+        <v>123</v>
+      </c>
+      <c r="B38" t="s" s="4">
         <v>124</v>
-      </c>
-      <c r="B38" t="s" s="4">
-        <v>125</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="20"/>
@@ -27466,10 +27463,10 @@
     </row>
     <row r="39" ht="30" customHeight="1">
       <c r="A39" t="s" s="4">
+        <v>125</v>
+      </c>
+      <c r="B39" t="s" s="4">
         <v>126</v>
-      </c>
-      <c r="B39" t="s" s="4">
-        <v>127</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="20"/>
@@ -27477,10 +27474,10 @@
     </row>
     <row r="40" ht="30" customHeight="1">
       <c r="A40" t="s" s="4">
+        <v>127</v>
+      </c>
+      <c r="B40" t="s" s="4">
         <v>128</v>
-      </c>
-      <c r="B40" t="s" s="4">
-        <v>129</v>
       </c>
       <c r="C40" s="21"/>
       <c r="D40" s="20"/>
@@ -27488,10 +27485,10 @@
     </row>
     <row r="41" ht="30" customHeight="1">
       <c r="A41" t="s" s="4">
+        <v>129</v>
+      </c>
+      <c r="B41" t="s" s="4">
         <v>130</v>
-      </c>
-      <c r="B41" t="s" s="4">
-        <v>131</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="20"/>
@@ -27499,10 +27496,10 @@
     </row>
     <row r="42" ht="30" customHeight="1">
       <c r="A42" t="s" s="4">
+        <v>131</v>
+      </c>
+      <c r="B42" t="s" s="4">
         <v>132</v>
-      </c>
-      <c r="B42" t="s" s="4">
-        <v>133</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="20"/>
@@ -27510,10 +27507,10 @@
     </row>
     <row r="43" ht="30" customHeight="1">
       <c r="A43" t="s" s="4">
+        <v>133</v>
+      </c>
+      <c r="B43" t="s" s="4">
         <v>134</v>
-      </c>
-      <c r="B43" t="s" s="4">
-        <v>135</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="20"/>
@@ -27521,10 +27518,10 @@
     </row>
     <row r="44" ht="30" customHeight="1">
       <c r="A44" t="s" s="4">
+        <v>135</v>
+      </c>
+      <c r="B44" t="s" s="4">
         <v>136</v>
-      </c>
-      <c r="B44" t="s" s="4">
-        <v>137</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="20"/>
@@ -27532,10 +27529,10 @@
     </row>
     <row r="45" ht="30" customHeight="1">
       <c r="A45" t="s" s="4">
+        <v>137</v>
+      </c>
+      <c r="B45" t="s" s="4">
         <v>138</v>
-      </c>
-      <c r="B45" t="s" s="4">
-        <v>139</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="20"/>
@@ -27543,10 +27540,10 @@
     </row>
     <row r="46" ht="30" customHeight="1">
       <c r="A46" t="s" s="4">
+        <v>139</v>
+      </c>
+      <c r="B46" t="s" s="4">
         <v>140</v>
-      </c>
-      <c r="B46" t="s" s="4">
-        <v>141</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="20"/>
@@ -27554,10 +27551,10 @@
     </row>
     <row r="47" ht="30" customHeight="1">
       <c r="A47" t="s" s="4">
+        <v>141</v>
+      </c>
+      <c r="B47" t="s" s="4">
         <v>142</v>
-      </c>
-      <c r="B47" t="s" s="4">
-        <v>143</v>
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="20"/>
@@ -27565,10 +27562,10 @@
     </row>
     <row r="48" ht="30" customHeight="1">
       <c r="A48" t="s" s="4">
+        <v>143</v>
+      </c>
+      <c r="B48" t="s" s="4">
         <v>144</v>
-      </c>
-      <c r="B48" t="s" s="4">
-        <v>145</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="20"/>
@@ -27576,10 +27573,10 @@
     </row>
     <row r="49" ht="30" customHeight="1">
       <c r="A49" t="s" s="4">
+        <v>145</v>
+      </c>
+      <c r="B49" t="s" s="4">
         <v>146</v>
-      </c>
-      <c r="B49" t="s" s="4">
-        <v>147</v>
       </c>
       <c r="C49" s="21"/>
       <c r="D49" s="20"/>
@@ -27587,10 +27584,10 @@
     </row>
     <row r="50" ht="30" customHeight="1">
       <c r="A50" t="s" s="4">
+        <v>147</v>
+      </c>
+      <c r="B50" t="s" s="4">
         <v>148</v>
-      </c>
-      <c r="B50" t="s" s="4">
-        <v>149</v>
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="20"/>
@@ -27598,10 +27595,10 @@
     </row>
     <row r="51" ht="30" customHeight="1">
       <c r="A51" t="s" s="4">
+        <v>149</v>
+      </c>
+      <c r="B51" t="s" s="4">
         <v>150</v>
-      </c>
-      <c r="B51" t="s" s="4">
-        <v>151</v>
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="20"/>
@@ -27609,10 +27606,10 @@
     </row>
     <row r="52" ht="30" customHeight="1">
       <c r="A52" t="s" s="4">
+        <v>151</v>
+      </c>
+      <c r="B52" t="s" s="4">
         <v>152</v>
-      </c>
-      <c r="B52" t="s" s="4">
-        <v>153</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="20"/>
@@ -27620,10 +27617,10 @@
     </row>
     <row r="53" ht="30" customHeight="1">
       <c r="A53" t="s" s="4">
+        <v>153</v>
+      </c>
+      <c r="B53" t="s" s="4">
         <v>154</v>
-      </c>
-      <c r="B53" t="s" s="4">
-        <v>155</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="20"/>
@@ -27631,10 +27628,10 @@
     </row>
     <row r="54" ht="30" customHeight="1">
       <c r="A54" t="s" s="4">
+        <v>155</v>
+      </c>
+      <c r="B54" t="s" s="4">
         <v>156</v>
-      </c>
-      <c r="B54" t="s" s="4">
-        <v>157</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="20"/>
@@ -27642,10 +27639,10 @@
     </row>
     <row r="55" ht="30" customHeight="1">
       <c r="A55" t="s" s="4">
+        <v>157</v>
+      </c>
+      <c r="B55" t="s" s="4">
         <v>158</v>
-      </c>
-      <c r="B55" t="s" s="4">
-        <v>159</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="20"/>
@@ -27653,10 +27650,10 @@
     </row>
     <row r="56" ht="30" customHeight="1">
       <c r="A56" t="s" s="4">
+        <v>159</v>
+      </c>
+      <c r="B56" t="s" s="4">
         <v>160</v>
-      </c>
-      <c r="B56" t="s" s="4">
-        <v>161</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="20"/>
@@ -27664,10 +27661,10 @@
     </row>
     <row r="57" ht="30" customHeight="1">
       <c r="A57" t="s" s="4">
+        <v>161</v>
+      </c>
+      <c r="B57" t="s" s="4">
         <v>162</v>
-      </c>
-      <c r="B57" t="s" s="4">
-        <v>163</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="20"/>
@@ -27675,10 +27672,10 @@
     </row>
     <row r="58" ht="30" customHeight="1">
       <c r="A58" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="B58" t="s" s="4">
         <v>164</v>
-      </c>
-      <c r="B58" t="s" s="4">
-        <v>165</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="20"/>
@@ -27686,10 +27683,10 @@
     </row>
     <row r="59" ht="30" customHeight="1">
       <c r="A59" t="s" s="4">
+        <v>165</v>
+      </c>
+      <c r="B59" t="s" s="4">
         <v>166</v>
-      </c>
-      <c r="B59" t="s" s="4">
-        <v>167</v>
       </c>
       <c r="C59" s="21"/>
       <c r="D59" s="20"/>
@@ -27697,10 +27694,10 @@
     </row>
     <row r="60" ht="30" customHeight="1">
       <c r="A60" t="s" s="4">
+        <v>167</v>
+      </c>
+      <c r="B60" t="s" s="4">
         <v>168</v>
-      </c>
-      <c r="B60" t="s" s="4">
-        <v>169</v>
       </c>
       <c r="C60" s="21"/>
       <c r="D60" s="20"/>
@@ -27708,10 +27705,10 @@
     </row>
     <row r="61" ht="30" customHeight="1">
       <c r="A61" t="s" s="4">
+        <v>169</v>
+      </c>
+      <c r="B61" t="s" s="4">
         <v>170</v>
-      </c>
-      <c r="B61" t="s" s="4">
-        <v>171</v>
       </c>
       <c r="C61" s="21"/>
       <c r="D61" s="20"/>
@@ -27719,10 +27716,10 @@
     </row>
     <row r="62" ht="30" customHeight="1">
       <c r="A62" t="s" s="4">
+        <v>171</v>
+      </c>
+      <c r="B62" t="s" s="4">
         <v>172</v>
-      </c>
-      <c r="B62" t="s" s="4">
-        <v>173</v>
       </c>
       <c r="C62" s="21"/>
       <c r="D62" s="20"/>
@@ -27730,10 +27727,10 @@
     </row>
     <row r="63" ht="30" customHeight="1">
       <c r="A63" t="s" s="4">
+        <v>173</v>
+      </c>
+      <c r="B63" t="s" s="4">
         <v>174</v>
-      </c>
-      <c r="B63" t="s" s="4">
-        <v>175</v>
       </c>
       <c r="C63" s="21"/>
       <c r="D63" s="20"/>
@@ -27741,10 +27738,10 @@
     </row>
     <row r="64" ht="30" customHeight="1">
       <c r="A64" t="s" s="4">
+        <v>175</v>
+      </c>
+      <c r="B64" t="s" s="4">
         <v>176</v>
-      </c>
-      <c r="B64" t="s" s="4">
-        <v>177</v>
       </c>
       <c r="C64" s="21"/>
       <c r="D64" s="20"/>
@@ -27752,10 +27749,10 @@
     </row>
     <row r="65" ht="30" customHeight="1">
       <c r="A65" t="s" s="4">
+        <v>177</v>
+      </c>
+      <c r="B65" t="s" s="4">
         <v>178</v>
-      </c>
-      <c r="B65" t="s" s="4">
-        <v>179</v>
       </c>
       <c r="C65" s="21"/>
       <c r="D65" s="20"/>
@@ -27763,10 +27760,10 @@
     </row>
     <row r="66" ht="30" customHeight="1">
       <c r="A66" t="s" s="4">
+        <v>179</v>
+      </c>
+      <c r="B66" t="s" s="4">
         <v>180</v>
-      </c>
-      <c r="B66" t="s" s="4">
-        <v>181</v>
       </c>
       <c r="C66" s="21"/>
       <c r="D66" s="20"/>
@@ -27774,10 +27771,10 @@
     </row>
     <row r="67" ht="30" customHeight="1">
       <c r="A67" t="s" s="4">
+        <v>181</v>
+      </c>
+      <c r="B67" t="s" s="4">
         <v>182</v>
-      </c>
-      <c r="B67" t="s" s="4">
-        <v>183</v>
       </c>
       <c r="C67" s="21"/>
       <c r="D67" s="20"/>
@@ -27785,10 +27782,10 @@
     </row>
     <row r="68" ht="30" customHeight="1">
       <c r="A68" t="s" s="4">
+        <v>183</v>
+      </c>
+      <c r="B68" t="s" s="4">
         <v>184</v>
-      </c>
-      <c r="B68" t="s" s="4">
-        <v>185</v>
       </c>
       <c r="C68" s="21"/>
       <c r="D68" s="20"/>
@@ -27796,10 +27793,10 @@
     </row>
     <row r="69" ht="30" customHeight="1">
       <c r="A69" t="s" s="4">
+        <v>185</v>
+      </c>
+      <c r="B69" t="s" s="4">
         <v>186</v>
-      </c>
-      <c r="B69" t="s" s="4">
-        <v>187</v>
       </c>
       <c r="C69" s="21"/>
       <c r="D69" s="20"/>
@@ -27807,10 +27804,10 @@
     </row>
     <row r="70" ht="30" customHeight="1">
       <c r="A70" t="s" s="4">
+        <v>187</v>
+      </c>
+      <c r="B70" t="s" s="4">
         <v>188</v>
-      </c>
-      <c r="B70" t="s" s="4">
-        <v>189</v>
       </c>
       <c r="C70" s="21"/>
       <c r="D70" s="20"/>
@@ -27818,10 +27815,10 @@
     </row>
     <row r="71" ht="30" customHeight="1">
       <c r="A71" t="s" s="4">
+        <v>189</v>
+      </c>
+      <c r="B71" t="s" s="4">
         <v>190</v>
-      </c>
-      <c r="B71" t="s" s="4">
-        <v>191</v>
       </c>
       <c r="C71" s="21"/>
       <c r="D71" s="20"/>
@@ -27829,10 +27826,10 @@
     </row>
     <row r="72" ht="30" customHeight="1">
       <c r="A72" t="s" s="4">
+        <v>191</v>
+      </c>
+      <c r="B72" t="s" s="4">
         <v>192</v>
-      </c>
-      <c r="B72" t="s" s="4">
-        <v>193</v>
       </c>
       <c r="C72" s="21"/>
       <c r="D72" s="20"/>
@@ -27840,10 +27837,10 @@
     </row>
     <row r="73" ht="30" customHeight="1">
       <c r="A73" t="s" s="4">
+        <v>193</v>
+      </c>
+      <c r="B73" t="s" s="4">
         <v>194</v>
-      </c>
-      <c r="B73" t="s" s="4">
-        <v>195</v>
       </c>
       <c r="C73" s="21"/>
       <c r="D73" s="20"/>
@@ -27851,10 +27848,10 @@
     </row>
     <row r="74" ht="30" customHeight="1">
       <c r="A74" t="s" s="4">
+        <v>195</v>
+      </c>
+      <c r="B74" t="s" s="4">
         <v>196</v>
-      </c>
-      <c r="B74" t="s" s="4">
-        <v>197</v>
       </c>
       <c r="C74" s="21"/>
       <c r="D74" s="20"/>
@@ -27862,10 +27859,10 @@
     </row>
     <row r="75" ht="30" customHeight="1">
       <c r="A75" t="s" s="4">
+        <v>197</v>
+      </c>
+      <c r="B75" t="s" s="4">
         <v>198</v>
-      </c>
-      <c r="B75" t="s" s="4">
-        <v>199</v>
       </c>
       <c r="C75" s="21"/>
       <c r="D75" s="20"/>
@@ -27873,10 +27870,10 @@
     </row>
     <row r="76" ht="30" customHeight="1">
       <c r="A76" t="s" s="4">
+        <v>199</v>
+      </c>
+      <c r="B76" t="s" s="4">
         <v>200</v>
-      </c>
-      <c r="B76" t="s" s="4">
-        <v>201</v>
       </c>
       <c r="C76" s="21"/>
       <c r="D76" s="20"/>
@@ -27884,10 +27881,10 @@
     </row>
     <row r="77" ht="30" customHeight="1">
       <c r="A77" t="s" s="4">
+        <v>201</v>
+      </c>
+      <c r="B77" t="s" s="4">
         <v>202</v>
-      </c>
-      <c r="B77" t="s" s="4">
-        <v>203</v>
       </c>
       <c r="C77" s="21"/>
       <c r="D77" s="20"/>
@@ -27895,10 +27892,10 @@
     </row>
     <row r="78" ht="30" customHeight="1">
       <c r="A78" t="s" s="4">
+        <v>203</v>
+      </c>
+      <c r="B78" t="s" s="4">
         <v>204</v>
-      </c>
-      <c r="B78" t="s" s="4">
-        <v>205</v>
       </c>
       <c r="C78" s="21"/>
       <c r="D78" s="20"/>
@@ -27906,10 +27903,10 @@
     </row>
     <row r="79" ht="30" customHeight="1">
       <c r="A79" t="s" s="4">
+        <v>205</v>
+      </c>
+      <c r="B79" t="s" s="4">
         <v>206</v>
-      </c>
-      <c r="B79" t="s" s="4">
-        <v>207</v>
       </c>
       <c r="C79" s="21"/>
       <c r="D79" s="20"/>
@@ -27917,10 +27914,10 @@
     </row>
     <row r="80" ht="30" customHeight="1">
       <c r="A80" t="s" s="4">
+        <v>207</v>
+      </c>
+      <c r="B80" t="s" s="4">
         <v>208</v>
-      </c>
-      <c r="B80" t="s" s="4">
-        <v>209</v>
       </c>
       <c r="C80" s="21"/>
       <c r="D80" s="20"/>
@@ -27928,10 +27925,10 @@
     </row>
     <row r="81" ht="30" customHeight="1">
       <c r="A81" t="s" s="4">
+        <v>209</v>
+      </c>
+      <c r="B81" t="s" s="4">
         <v>210</v>
-      </c>
-      <c r="B81" t="s" s="4">
-        <v>211</v>
       </c>
       <c r="C81" s="21"/>
       <c r="D81" s="20"/>
@@ -27939,10 +27936,10 @@
     </row>
     <row r="82" ht="30" customHeight="1">
       <c r="A82" t="s" s="4">
+        <v>211</v>
+      </c>
+      <c r="B82" t="s" s="4">
         <v>212</v>
-      </c>
-      <c r="B82" t="s" s="4">
-        <v>213</v>
       </c>
       <c r="C82" s="21"/>
       <c r="D82" s="20"/>
@@ -27950,10 +27947,10 @@
     </row>
     <row r="83" ht="30" customHeight="1">
       <c r="A83" t="s" s="4">
+        <v>213</v>
+      </c>
+      <c r="B83" t="s" s="4">
         <v>214</v>
-      </c>
-      <c r="B83" t="s" s="4">
-        <v>215</v>
       </c>
       <c r="C83" s="21"/>
       <c r="D83" s="20"/>
@@ -27961,10 +27958,10 @@
     </row>
     <row r="84" ht="30" customHeight="1">
       <c r="A84" t="s" s="4">
+        <v>215</v>
+      </c>
+      <c r="B84" t="s" s="4">
         <v>216</v>
-      </c>
-      <c r="B84" t="s" s="4">
-        <v>217</v>
       </c>
       <c r="C84" s="21"/>
       <c r="D84" s="20"/>
@@ -27972,10 +27969,10 @@
     </row>
     <row r="85" ht="30" customHeight="1">
       <c r="A85" t="s" s="4">
+        <v>217</v>
+      </c>
+      <c r="B85" t="s" s="4">
         <v>218</v>
-      </c>
-      <c r="B85" t="s" s="4">
-        <v>219</v>
       </c>
       <c r="C85" s="21"/>
       <c r="D85" s="20"/>
@@ -27983,10 +27980,10 @@
     </row>
     <row r="86" ht="30" customHeight="1">
       <c r="A86" t="s" s="4">
+        <v>219</v>
+      </c>
+      <c r="B86" t="s" s="4">
         <v>220</v>
-      </c>
-      <c r="B86" t="s" s="4">
-        <v>221</v>
       </c>
       <c r="C86" s="21"/>
       <c r="D86" s="20"/>
@@ -27994,10 +27991,10 @@
     </row>
     <row r="87" ht="30" customHeight="1">
       <c r="A87" t="s" s="4">
+        <v>221</v>
+      </c>
+      <c r="B87" t="s" s="4">
         <v>222</v>
-      </c>
-      <c r="B87" t="s" s="4">
-        <v>223</v>
       </c>
       <c r="C87" s="21"/>
       <c r="D87" s="20"/>
@@ -28005,10 +28002,10 @@
     </row>
     <row r="88" ht="30" customHeight="1">
       <c r="A88" t="s" s="4">
+        <v>223</v>
+      </c>
+      <c r="B88" t="s" s="4">
         <v>224</v>
-      </c>
-      <c r="B88" t="s" s="4">
-        <v>225</v>
       </c>
       <c r="C88" s="21"/>
       <c r="D88" s="20"/>
@@ -28016,10 +28013,10 @@
     </row>
     <row r="89" ht="30" customHeight="1">
       <c r="A89" t="s" s="4">
+        <v>225</v>
+      </c>
+      <c r="B89" t="s" s="4">
         <v>226</v>
-      </c>
-      <c r="B89" t="s" s="4">
-        <v>227</v>
       </c>
       <c r="C89" s="21"/>
       <c r="D89" s="20"/>
@@ -28027,10 +28024,10 @@
     </row>
     <row r="90" ht="30" customHeight="1">
       <c r="A90" t="s" s="4">
+        <v>227</v>
+      </c>
+      <c r="B90" t="s" s="4">
         <v>228</v>
-      </c>
-      <c r="B90" t="s" s="4">
-        <v>229</v>
       </c>
       <c r="C90" s="21"/>
       <c r="D90" s="20"/>
@@ -28038,10 +28035,10 @@
     </row>
     <row r="91" ht="30" customHeight="1">
       <c r="A91" t="s" s="4">
+        <v>229</v>
+      </c>
+      <c r="B91" t="s" s="4">
         <v>230</v>
-      </c>
-      <c r="B91" t="s" s="4">
-        <v>231</v>
       </c>
       <c r="C91" s="21"/>
       <c r="D91" s="20"/>
@@ -28049,10 +28046,10 @@
     </row>
     <row r="92" ht="30" customHeight="1">
       <c r="A92" t="s" s="4">
+        <v>231</v>
+      </c>
+      <c r="B92" t="s" s="4">
         <v>232</v>
-      </c>
-      <c r="B92" t="s" s="4">
-        <v>233</v>
       </c>
       <c r="C92" s="21"/>
       <c r="D92" s="20"/>
@@ -28060,10 +28057,10 @@
     </row>
     <row r="93" ht="30" customHeight="1">
       <c r="A93" t="s" s="4">
+        <v>233</v>
+      </c>
+      <c r="B93" t="s" s="4">
         <v>234</v>
-      </c>
-      <c r="B93" t="s" s="4">
-        <v>235</v>
       </c>
       <c r="C93" s="21"/>
       <c r="D93" s="20"/>
@@ -28071,10 +28068,10 @@
     </row>
     <row r="94" ht="30" customHeight="1">
       <c r="A94" t="s" s="4">
+        <v>235</v>
+      </c>
+      <c r="B94" t="s" s="4">
         <v>236</v>
-      </c>
-      <c r="B94" t="s" s="4">
-        <v>237</v>
       </c>
       <c r="C94" s="21"/>
       <c r="D94" s="20"/>
@@ -28082,10 +28079,10 @@
     </row>
     <row r="95" ht="30" customHeight="1">
       <c r="A95" t="s" s="4">
+        <v>237</v>
+      </c>
+      <c r="B95" t="s" s="4">
         <v>238</v>
-      </c>
-      <c r="B95" t="s" s="4">
-        <v>239</v>
       </c>
       <c r="C95" s="21"/>
       <c r="D95" s="20"/>
@@ -28093,10 +28090,10 @@
     </row>
     <row r="96" ht="30" customHeight="1">
       <c r="A96" t="s" s="4">
+        <v>239</v>
+      </c>
+      <c r="B96" t="s" s="4">
         <v>240</v>
-      </c>
-      <c r="B96" t="s" s="4">
-        <v>241</v>
       </c>
       <c r="C96" s="21"/>
       <c r="D96" s="20"/>
@@ -28104,10 +28101,10 @@
     </row>
     <row r="97" ht="30" customHeight="1">
       <c r="A97" t="s" s="4">
+        <v>241</v>
+      </c>
+      <c r="B97" t="s" s="4">
         <v>242</v>
-      </c>
-      <c r="B97" t="s" s="4">
-        <v>243</v>
       </c>
       <c r="C97" s="21"/>
       <c r="D97" s="20"/>
@@ -28115,10 +28112,10 @@
     </row>
     <row r="98" ht="30" customHeight="1">
       <c r="A98" t="s" s="4">
+        <v>243</v>
+      </c>
+      <c r="B98" t="s" s="4">
         <v>244</v>
-      </c>
-      <c r="B98" t="s" s="4">
-        <v>245</v>
       </c>
       <c r="C98" s="21"/>
       <c r="D98" s="20"/>
@@ -28126,10 +28123,10 @@
     </row>
     <row r="99" ht="30" customHeight="1">
       <c r="A99" t="s" s="4">
+        <v>245</v>
+      </c>
+      <c r="B99" t="s" s="4">
         <v>246</v>
-      </c>
-      <c r="B99" t="s" s="4">
-        <v>247</v>
       </c>
       <c r="C99" s="21"/>
       <c r="D99" s="20"/>
@@ -28137,10 +28134,10 @@
     </row>
     <row r="100" ht="30" customHeight="1">
       <c r="A100" t="s" s="4">
+        <v>247</v>
+      </c>
+      <c r="B100" t="s" s="4">
         <v>248</v>
-      </c>
-      <c r="B100" t="s" s="4">
-        <v>249</v>
       </c>
       <c r="C100" s="21"/>
       <c r="D100" s="20"/>
@@ -28148,10 +28145,10 @@
     </row>
     <row r="101" ht="30" customHeight="1">
       <c r="A101" t="s" s="4">
+        <v>249</v>
+      </c>
+      <c r="B101" t="s" s="4">
         <v>250</v>
-      </c>
-      <c r="B101" t="s" s="4">
-        <v>251</v>
       </c>
       <c r="C101" s="21"/>
       <c r="D101" s="20"/>
@@ -28159,10 +28156,10 @@
     </row>
     <row r="102" ht="30" customHeight="1">
       <c r="A102" t="s" s="4">
+        <v>251</v>
+      </c>
+      <c r="B102" t="s" s="4">
         <v>252</v>
-      </c>
-      <c r="B102" t="s" s="4">
-        <v>253</v>
       </c>
       <c r="C102" s="21"/>
       <c r="D102" s="20"/>
@@ -28170,10 +28167,10 @@
     </row>
     <row r="103" ht="30" customHeight="1">
       <c r="A103" t="s" s="4">
+        <v>253</v>
+      </c>
+      <c r="B103" t="s" s="4">
         <v>254</v>
-      </c>
-      <c r="B103" t="s" s="4">
-        <v>255</v>
       </c>
       <c r="C103" s="21"/>
       <c r="D103" s="20"/>
@@ -28181,10 +28178,10 @@
     </row>
     <row r="104" ht="30" customHeight="1">
       <c r="A104" t="s" s="4">
+        <v>255</v>
+      </c>
+      <c r="B104" t="s" s="4">
         <v>256</v>
-      </c>
-      <c r="B104" t="s" s="4">
-        <v>257</v>
       </c>
       <c r="C104" s="21"/>
       <c r="D104" s="20"/>
@@ -28192,10 +28189,10 @@
     </row>
     <row r="105" ht="30" customHeight="1">
       <c r="A105" t="s" s="4">
+        <v>257</v>
+      </c>
+      <c r="B105" t="s" s="4">
         <v>258</v>
-      </c>
-      <c r="B105" t="s" s="4">
-        <v>259</v>
       </c>
       <c r="C105" s="21"/>
       <c r="D105" s="20"/>
@@ -28203,10 +28200,10 @@
     </row>
     <row r="106" ht="30" customHeight="1">
       <c r="A106" t="s" s="4">
+        <v>259</v>
+      </c>
+      <c r="B106" t="s" s="4">
         <v>260</v>
-      </c>
-      <c r="B106" t="s" s="4">
-        <v>261</v>
       </c>
       <c r="C106" s="21"/>
       <c r="D106" s="20"/>
@@ -28214,10 +28211,10 @@
     </row>
     <row r="107" ht="30" customHeight="1">
       <c r="A107" t="s" s="4">
+        <v>261</v>
+      </c>
+      <c r="B107" t="s" s="4">
         <v>262</v>
-      </c>
-      <c r="B107" t="s" s="4">
-        <v>263</v>
       </c>
       <c r="C107" s="21"/>
       <c r="D107" s="20"/>
@@ -28225,10 +28222,10 @@
     </row>
     <row r="108" ht="30" customHeight="1">
       <c r="A108" t="s" s="4">
+        <v>263</v>
+      </c>
+      <c r="B108" t="s" s="4">
         <v>264</v>
-      </c>
-      <c r="B108" t="s" s="4">
-        <v>265</v>
       </c>
       <c r="C108" s="21"/>
       <c r="D108" s="20"/>
@@ -28236,10 +28233,10 @@
     </row>
     <row r="109" ht="30" customHeight="1">
       <c r="A109" t="s" s="4">
+        <v>265</v>
+      </c>
+      <c r="B109" t="s" s="4">
         <v>266</v>
-      </c>
-      <c r="B109" t="s" s="4">
-        <v>267</v>
       </c>
       <c r="C109" s="21"/>
       <c r="D109" s="20"/>
@@ -28247,10 +28244,10 @@
     </row>
     <row r="110" ht="30" customHeight="1">
       <c r="A110" t="s" s="4">
+        <v>267</v>
+      </c>
+      <c r="B110" t="s" s="4">
         <v>268</v>
-      </c>
-      <c r="B110" t="s" s="4">
-        <v>269</v>
       </c>
       <c r="C110" s="21"/>
       <c r="D110" s="20"/>
@@ -28258,10 +28255,10 @@
     </row>
     <row r="111" ht="30" customHeight="1">
       <c r="A111" t="s" s="4">
+        <v>269</v>
+      </c>
+      <c r="B111" t="s" s="4">
         <v>270</v>
-      </c>
-      <c r="B111" t="s" s="4">
-        <v>271</v>
       </c>
       <c r="C111" s="21"/>
       <c r="D111" s="20"/>
@@ -28269,10 +28266,10 @@
     </row>
     <row r="112" ht="30" customHeight="1">
       <c r="A112" t="s" s="4">
+        <v>271</v>
+      </c>
+      <c r="B112" t="s" s="4">
         <v>272</v>
-      </c>
-      <c r="B112" t="s" s="4">
-        <v>273</v>
       </c>
       <c r="C112" s="21"/>
       <c r="D112" s="20"/>
@@ -28280,10 +28277,10 @@
     </row>
     <row r="113" ht="30" customHeight="1">
       <c r="A113" t="s" s="4">
+        <v>273</v>
+      </c>
+      <c r="B113" t="s" s="4">
         <v>274</v>
-      </c>
-      <c r="B113" t="s" s="4">
-        <v>275</v>
       </c>
       <c r="C113" s="21"/>
       <c r="D113" s="20"/>
@@ -28291,10 +28288,10 @@
     </row>
     <row r="114" ht="30" customHeight="1">
       <c r="A114" t="s" s="4">
+        <v>275</v>
+      </c>
+      <c r="B114" t="s" s="4">
         <v>276</v>
-      </c>
-      <c r="B114" t="s" s="4">
-        <v>277</v>
       </c>
       <c r="C114" s="21"/>
       <c r="D114" s="20"/>
@@ -28302,10 +28299,10 @@
     </row>
     <row r="115" ht="30" customHeight="1">
       <c r="A115" t="s" s="4">
+        <v>277</v>
+      </c>
+      <c r="B115" t="s" s="4">
         <v>278</v>
-      </c>
-      <c r="B115" t="s" s="4">
-        <v>279</v>
       </c>
       <c r="C115" s="21"/>
       <c r="D115" s="20"/>
@@ -28313,10 +28310,10 @@
     </row>
     <row r="116" ht="30" customHeight="1">
       <c r="A116" t="s" s="4">
+        <v>279</v>
+      </c>
+      <c r="B116" t="s" s="4">
         <v>280</v>
-      </c>
-      <c r="B116" t="s" s="4">
-        <v>281</v>
       </c>
       <c r="C116" s="21"/>
       <c r="D116" s="20"/>
@@ -28324,10 +28321,10 @@
     </row>
     <row r="117" ht="30" customHeight="1">
       <c r="A117" t="s" s="4">
+        <v>281</v>
+      </c>
+      <c r="B117" t="s" s="4">
         <v>282</v>
-      </c>
-      <c r="B117" t="s" s="4">
-        <v>283</v>
       </c>
       <c r="C117" s="21"/>
       <c r="D117" s="20"/>
@@ -28335,10 +28332,10 @@
     </row>
     <row r="118" ht="30" customHeight="1">
       <c r="A118" t="s" s="4">
+        <v>283</v>
+      </c>
+      <c r="B118" t="s" s="4">
         <v>284</v>
-      </c>
-      <c r="B118" t="s" s="4">
-        <v>285</v>
       </c>
       <c r="C118" s="21"/>
       <c r="D118" s="20"/>
@@ -28346,10 +28343,10 @@
     </row>
     <row r="119" ht="30" customHeight="1">
       <c r="A119" t="s" s="4">
+        <v>285</v>
+      </c>
+      <c r="B119" t="s" s="4">
         <v>286</v>
-      </c>
-      <c r="B119" t="s" s="4">
-        <v>287</v>
       </c>
       <c r="C119" s="21"/>
       <c r="D119" s="20"/>
@@ -28357,10 +28354,10 @@
     </row>
     <row r="120" ht="30" customHeight="1">
       <c r="A120" t="s" s="4">
+        <v>287</v>
+      </c>
+      <c r="B120" t="s" s="4">
         <v>288</v>
-      </c>
-      <c r="B120" t="s" s="4">
-        <v>289</v>
       </c>
       <c r="C120" s="21"/>
       <c r="D120" s="20"/>
@@ -28368,10 +28365,10 @@
     </row>
     <row r="121" ht="30" customHeight="1">
       <c r="A121" t="s" s="4">
+        <v>289</v>
+      </c>
+      <c r="B121" t="s" s="4">
         <v>290</v>
-      </c>
-      <c r="B121" t="s" s="4">
-        <v>291</v>
       </c>
       <c r="C121" s="21"/>
       <c r="D121" s="20"/>
@@ -28379,10 +28376,10 @@
     </row>
     <row r="122" ht="30" customHeight="1">
       <c r="A122" t="s" s="4">
+        <v>291</v>
+      </c>
+      <c r="B122" t="s" s="4">
         <v>292</v>
-      </c>
-      <c r="B122" t="s" s="4">
-        <v>293</v>
       </c>
       <c r="C122" s="21"/>
       <c r="D122" s="20"/>
@@ -28390,10 +28387,10 @@
     </row>
     <row r="123" ht="30" customHeight="1">
       <c r="A123" t="s" s="4">
+        <v>293</v>
+      </c>
+      <c r="B123" t="s" s="4">
         <v>294</v>
-      </c>
-      <c r="B123" t="s" s="4">
-        <v>295</v>
       </c>
       <c r="C123" s="21"/>
       <c r="D123" s="20"/>
@@ -28401,10 +28398,10 @@
     </row>
     <row r="124" ht="30" customHeight="1">
       <c r="A124" t="s" s="4">
+        <v>295</v>
+      </c>
+      <c r="B124" t="s" s="4">
         <v>296</v>
-      </c>
-      <c r="B124" t="s" s="4">
-        <v>297</v>
       </c>
       <c r="C124" s="21"/>
       <c r="D124" s="20"/>
@@ -28412,10 +28409,10 @@
     </row>
     <row r="125" ht="30" customHeight="1">
       <c r="A125" t="s" s="4">
+        <v>297</v>
+      </c>
+      <c r="B125" t="s" s="4">
         <v>298</v>
-      </c>
-      <c r="B125" t="s" s="4">
-        <v>299</v>
       </c>
       <c r="C125" s="21"/>
       <c r="D125" s="20"/>
@@ -28423,10 +28420,10 @@
     </row>
     <row r="126" ht="30" customHeight="1">
       <c r="A126" t="s" s="4">
+        <v>299</v>
+      </c>
+      <c r="B126" t="s" s="4">
         <v>300</v>
-      </c>
-      <c r="B126" t="s" s="4">
-        <v>301</v>
       </c>
       <c r="C126" s="21"/>
       <c r="D126" s="20"/>
@@ -28434,10 +28431,10 @@
     </row>
     <row r="127" ht="30" customHeight="1">
       <c r="A127" t="s" s="4">
+        <v>301</v>
+      </c>
+      <c r="B127" t="s" s="4">
         <v>302</v>
-      </c>
-      <c r="B127" t="s" s="4">
-        <v>303</v>
       </c>
       <c r="C127" s="21"/>
       <c r="D127" s="20"/>
@@ -28445,10 +28442,10 @@
     </row>
     <row r="128" ht="30" customHeight="1">
       <c r="A128" t="s" s="4">
+        <v>303</v>
+      </c>
+      <c r="B128" t="s" s="4">
         <v>304</v>
-      </c>
-      <c r="B128" t="s" s="4">
-        <v>305</v>
       </c>
       <c r="C128" s="21"/>
       <c r="D128" s="20"/>
@@ -28456,10 +28453,10 @@
     </row>
     <row r="129" ht="30" customHeight="1">
       <c r="A129" t="s" s="4">
+        <v>305</v>
+      </c>
+      <c r="B129" t="s" s="4">
         <v>306</v>
-      </c>
-      <c r="B129" t="s" s="4">
-        <v>307</v>
       </c>
       <c r="C129" s="21"/>
       <c r="D129" s="20"/>
@@ -28467,10 +28464,10 @@
     </row>
     <row r="130" ht="30" customHeight="1">
       <c r="A130" t="s" s="4">
+        <v>307</v>
+      </c>
+      <c r="B130" t="s" s="4">
         <v>308</v>
-      </c>
-      <c r="B130" t="s" s="4">
-        <v>309</v>
       </c>
       <c r="C130" s="21"/>
       <c r="D130" s="20"/>
@@ -28478,10 +28475,10 @@
     </row>
     <row r="131" ht="30" customHeight="1">
       <c r="A131" t="s" s="4">
+        <v>309</v>
+      </c>
+      <c r="B131" t="s" s="4">
         <v>310</v>
-      </c>
-      <c r="B131" t="s" s="4">
-        <v>311</v>
       </c>
       <c r="C131" s="21"/>
       <c r="D131" s="20"/>
@@ -28489,10 +28486,10 @@
     </row>
     <row r="132" ht="30" customHeight="1">
       <c r="A132" t="s" s="4">
+        <v>311</v>
+      </c>
+      <c r="B132" t="s" s="4">
         <v>312</v>
-      </c>
-      <c r="B132" t="s" s="4">
-        <v>313</v>
       </c>
       <c r="C132" s="21"/>
       <c r="D132" s="20"/>
@@ -28500,10 +28497,10 @@
     </row>
     <row r="133" ht="30" customHeight="1">
       <c r="A133" t="s" s="4">
+        <v>313</v>
+      </c>
+      <c r="B133" t="s" s="4">
         <v>314</v>
-      </c>
-      <c r="B133" t="s" s="4">
-        <v>315</v>
       </c>
       <c r="C133" s="21"/>
       <c r="D133" s="20"/>
@@ -28511,10 +28508,10 @@
     </row>
     <row r="134" ht="30" customHeight="1">
       <c r="A134" t="s" s="4">
+        <v>315</v>
+      </c>
+      <c r="B134" t="s" s="4">
         <v>316</v>
-      </c>
-      <c r="B134" t="s" s="4">
-        <v>317</v>
       </c>
       <c r="C134" s="21"/>
       <c r="D134" s="20"/>
@@ -28522,10 +28519,10 @@
     </row>
     <row r="135" ht="30" customHeight="1">
       <c r="A135" t="s" s="4">
+        <v>317</v>
+      </c>
+      <c r="B135" t="s" s="4">
         <v>318</v>
-      </c>
-      <c r="B135" t="s" s="4">
-        <v>319</v>
       </c>
       <c r="C135" s="21"/>
       <c r="D135" s="20"/>
@@ -28533,10 +28530,10 @@
     </row>
     <row r="136" ht="30" customHeight="1">
       <c r="A136" t="s" s="4">
+        <v>319</v>
+      </c>
+      <c r="B136" t="s" s="4">
         <v>320</v>
-      </c>
-      <c r="B136" t="s" s="4">
-        <v>321</v>
       </c>
       <c r="C136" s="21"/>
       <c r="D136" s="20"/>
@@ -28544,10 +28541,10 @@
     </row>
     <row r="137" ht="30" customHeight="1">
       <c r="A137" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="B137" t="s" s="4">
         <v>322</v>
-      </c>
-      <c r="B137" t="s" s="4">
-        <v>323</v>
       </c>
       <c r="C137" s="21"/>
       <c r="D137" s="20"/>
@@ -28555,10 +28552,10 @@
     </row>
     <row r="138" ht="30" customHeight="1">
       <c r="A138" t="s" s="4">
+        <v>323</v>
+      </c>
+      <c r="B138" t="s" s="4">
         <v>324</v>
-      </c>
-      <c r="B138" t="s" s="4">
-        <v>325</v>
       </c>
       <c r="C138" s="21"/>
       <c r="D138" s="20"/>
@@ -28566,10 +28563,10 @@
     </row>
     <row r="139" ht="30" customHeight="1">
       <c r="A139" t="s" s="4">
+        <v>325</v>
+      </c>
+      <c r="B139" t="s" s="4">
         <v>326</v>
-      </c>
-      <c r="B139" t="s" s="4">
-        <v>327</v>
       </c>
       <c r="C139" s="21"/>
       <c r="D139" s="20"/>
@@ -28577,10 +28574,10 @@
     </row>
     <row r="140" ht="30" customHeight="1">
       <c r="A140" t="s" s="4">
+        <v>327</v>
+      </c>
+      <c r="B140" t="s" s="4">
         <v>328</v>
-      </c>
-      <c r="B140" t="s" s="4">
-        <v>329</v>
       </c>
       <c r="C140" s="21"/>
       <c r="D140" s="20"/>
@@ -28588,10 +28585,10 @@
     </row>
     <row r="141" ht="30" customHeight="1">
       <c r="A141" t="s" s="4">
+        <v>329</v>
+      </c>
+      <c r="B141" t="s" s="4">
         <v>330</v>
-      </c>
-      <c r="B141" t="s" s="4">
-        <v>331</v>
       </c>
       <c r="C141" s="21"/>
       <c r="D141" s="20"/>
@@ -28599,10 +28596,10 @@
     </row>
     <row r="142" ht="30" customHeight="1">
       <c r="A142" t="s" s="4">
+        <v>331</v>
+      </c>
+      <c r="B142" t="s" s="4">
         <v>332</v>
-      </c>
-      <c r="B142" t="s" s="4">
-        <v>333</v>
       </c>
       <c r="C142" s="21"/>
       <c r="D142" s="20"/>
@@ -28610,10 +28607,10 @@
     </row>
     <row r="143" ht="30" customHeight="1">
       <c r="A143" t="s" s="4">
+        <v>333</v>
+      </c>
+      <c r="B143" t="s" s="4">
         <v>334</v>
-      </c>
-      <c r="B143" t="s" s="4">
-        <v>335</v>
       </c>
       <c r="C143" s="21"/>
       <c r="D143" s="20"/>
@@ -28621,10 +28618,10 @@
     </row>
     <row r="144" ht="30" customHeight="1">
       <c r="A144" t="s" s="4">
+        <v>335</v>
+      </c>
+      <c r="B144" t="s" s="4">
         <v>336</v>
-      </c>
-      <c r="B144" t="s" s="4">
-        <v>337</v>
       </c>
       <c r="C144" s="21"/>
       <c r="D144" s="20"/>
@@ -28632,10 +28629,10 @@
     </row>
     <row r="145" ht="30" customHeight="1">
       <c r="A145" t="s" s="4">
+        <v>337</v>
+      </c>
+      <c r="B145" t="s" s="4">
         <v>338</v>
-      </c>
-      <c r="B145" t="s" s="4">
-        <v>339</v>
       </c>
       <c r="C145" s="21"/>
       <c r="D145" s="20"/>
@@ -28643,10 +28640,10 @@
     </row>
     <row r="146" ht="30" customHeight="1">
       <c r="A146" t="s" s="4">
+        <v>339</v>
+      </c>
+      <c r="B146" t="s" s="4">
         <v>340</v>
-      </c>
-      <c r="B146" t="s" s="4">
-        <v>341</v>
       </c>
       <c r="C146" s="21"/>
       <c r="D146" s="20"/>
@@ -28654,10 +28651,10 @@
     </row>
     <row r="147" ht="30" customHeight="1">
       <c r="A147" t="s" s="4">
+        <v>341</v>
+      </c>
+      <c r="B147" t="s" s="4">
         <v>342</v>
-      </c>
-      <c r="B147" t="s" s="4">
-        <v>343</v>
       </c>
       <c r="C147" s="21"/>
       <c r="D147" s="20"/>
@@ -28665,10 +28662,10 @@
     </row>
     <row r="148" ht="30" customHeight="1">
       <c r="A148" t="s" s="4">
+        <v>343</v>
+      </c>
+      <c r="B148" t="s" s="4">
         <v>344</v>
-      </c>
-      <c r="B148" t="s" s="4">
-        <v>345</v>
       </c>
       <c r="C148" s="21"/>
       <c r="D148" s="20"/>
@@ -28676,10 +28673,10 @@
     </row>
     <row r="149" ht="30" customHeight="1">
       <c r="A149" t="s" s="4">
+        <v>345</v>
+      </c>
+      <c r="B149" t="s" s="4">
         <v>346</v>
-      </c>
-      <c r="B149" t="s" s="4">
-        <v>347</v>
       </c>
       <c r="C149" s="21"/>
       <c r="D149" s="20"/>
@@ -28687,10 +28684,10 @@
     </row>
     <row r="150" ht="30" customHeight="1">
       <c r="A150" t="s" s="4">
+        <v>347</v>
+      </c>
+      <c r="B150" t="s" s="4">
         <v>348</v>
-      </c>
-      <c r="B150" t="s" s="4">
-        <v>349</v>
       </c>
       <c r="C150" s="21"/>
       <c r="D150" s="20"/>
@@ -28698,10 +28695,10 @@
     </row>
     <row r="151" ht="30" customHeight="1">
       <c r="A151" t="s" s="4">
+        <v>349</v>
+      </c>
+      <c r="B151" t="s" s="4">
         <v>350</v>
-      </c>
-      <c r="B151" t="s" s="4">
-        <v>351</v>
       </c>
       <c r="C151" s="21"/>
       <c r="D151" s="20"/>
@@ -28709,10 +28706,10 @@
     </row>
     <row r="152" ht="30" customHeight="1">
       <c r="A152" t="s" s="4">
+        <v>351</v>
+      </c>
+      <c r="B152" t="s" s="4">
         <v>352</v>
-      </c>
-      <c r="B152" t="s" s="4">
-        <v>353</v>
       </c>
       <c r="C152" s="21"/>
       <c r="D152" s="20"/>
@@ -28720,10 +28717,10 @@
     </row>
     <row r="153" ht="30" customHeight="1">
       <c r="A153" t="s" s="4">
+        <v>353</v>
+      </c>
+      <c r="B153" t="s" s="4">
         <v>354</v>
-      </c>
-      <c r="B153" t="s" s="4">
-        <v>355</v>
       </c>
       <c r="C153" s="21"/>
       <c r="D153" s="20"/>
@@ -28731,10 +28728,10 @@
     </row>
     <row r="154" ht="30" customHeight="1">
       <c r="A154" t="s" s="4">
+        <v>355</v>
+      </c>
+      <c r="B154" t="s" s="4">
         <v>356</v>
-      </c>
-      <c r="B154" t="s" s="4">
-        <v>357</v>
       </c>
       <c r="C154" s="21"/>
       <c r="D154" s="20"/>
@@ -28742,10 +28739,10 @@
     </row>
     <row r="155" ht="30" customHeight="1">
       <c r="A155" t="s" s="4">
+        <v>357</v>
+      </c>
+      <c r="B155" t="s" s="4">
         <v>358</v>
-      </c>
-      <c r="B155" t="s" s="4">
-        <v>359</v>
       </c>
       <c r="C155" s="21"/>
       <c r="D155" s="20"/>
@@ -28756,7 +28753,7 @@
         <v>35</v>
       </c>
       <c r="B156" t="s" s="4">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C156" s="21"/>
       <c r="D156" s="20"/>
@@ -28764,10 +28761,10 @@
     </row>
     <row r="157" ht="30" customHeight="1">
       <c r="A157" t="s" s="4">
+        <v>360</v>
+      </c>
+      <c r="B157" t="s" s="4">
         <v>361</v>
-      </c>
-      <c r="B157" t="s" s="4">
-        <v>362</v>
       </c>
       <c r="C157" s="21"/>
       <c r="D157" s="20"/>
@@ -28775,10 +28772,10 @@
     </row>
     <row r="158" ht="30" customHeight="1">
       <c r="A158" t="s" s="4">
+        <v>362</v>
+      </c>
+      <c r="B158" t="s" s="4">
         <v>363</v>
-      </c>
-      <c r="B158" t="s" s="4">
-        <v>364</v>
       </c>
       <c r="C158" s="21"/>
       <c r="D158" s="20"/>
@@ -28786,10 +28783,10 @@
     </row>
     <row r="159" ht="30" customHeight="1">
       <c r="A159" t="s" s="4">
+        <v>364</v>
+      </c>
+      <c r="B159" t="s" s="4">
         <v>365</v>
-      </c>
-      <c r="B159" t="s" s="4">
-        <v>366</v>
       </c>
       <c r="C159" s="21"/>
       <c r="D159" s="20"/>
@@ -28797,10 +28794,10 @@
     </row>
     <row r="160" ht="30" customHeight="1">
       <c r="A160" t="s" s="4">
+        <v>366</v>
+      </c>
+      <c r="B160" t="s" s="4">
         <v>367</v>
-      </c>
-      <c r="B160" t="s" s="4">
-        <v>368</v>
       </c>
       <c r="C160" s="21"/>
       <c r="D160" s="20"/>
@@ -28808,10 +28805,10 @@
     </row>
     <row r="161" ht="30" customHeight="1">
       <c r="A161" t="s" s="4">
+        <v>368</v>
+      </c>
+      <c r="B161" t="s" s="4">
         <v>369</v>
-      </c>
-      <c r="B161" t="s" s="4">
-        <v>370</v>
       </c>
       <c r="C161" s="21"/>
       <c r="D161" s="20"/>
@@ -28819,10 +28816,10 @@
     </row>
     <row r="162" ht="30" customHeight="1">
       <c r="A162" t="s" s="4">
+        <v>370</v>
+      </c>
+      <c r="B162" t="s" s="4">
         <v>371</v>
-      </c>
-      <c r="B162" t="s" s="4">
-        <v>372</v>
       </c>
       <c r="C162" s="21"/>
       <c r="D162" s="20"/>
@@ -28830,10 +28827,10 @@
     </row>
     <row r="163" ht="30" customHeight="1">
       <c r="A163" t="s" s="4">
+        <v>372</v>
+      </c>
+      <c r="B163" t="s" s="4">
         <v>373</v>
-      </c>
-      <c r="B163" t="s" s="4">
-        <v>374</v>
       </c>
       <c r="C163" s="21"/>
       <c r="D163" s="20"/>
@@ -28841,10 +28838,10 @@
     </row>
     <row r="164" ht="30" customHeight="1">
       <c r="A164" t="s" s="4">
+        <v>374</v>
+      </c>
+      <c r="B164" t="s" s="4">
         <v>375</v>
-      </c>
-      <c r="B164" t="s" s="4">
-        <v>376</v>
       </c>
       <c r="C164" s="21"/>
       <c r="D164" s="20"/>
@@ -28852,10 +28849,10 @@
     </row>
     <row r="165" ht="30" customHeight="1">
       <c r="A165" t="s" s="4">
+        <v>376</v>
+      </c>
+      <c r="B165" t="s" s="4">
         <v>377</v>
-      </c>
-      <c r="B165" t="s" s="4">
-        <v>378</v>
       </c>
       <c r="C165" s="21"/>
       <c r="D165" s="20"/>
@@ -28863,10 +28860,10 @@
     </row>
     <row r="166" ht="30" customHeight="1">
       <c r="A166" t="s" s="4">
+        <v>378</v>
+      </c>
+      <c r="B166" t="s" s="4">
         <v>379</v>
-      </c>
-      <c r="B166" t="s" s="4">
-        <v>380</v>
       </c>
       <c r="C166" s="21"/>
       <c r="D166" s="20"/>
@@ -28874,10 +28871,10 @@
     </row>
     <row r="167" ht="30" customHeight="1">
       <c r="A167" t="s" s="4">
+        <v>380</v>
+      </c>
+      <c r="B167" t="s" s="4">
         <v>381</v>
-      </c>
-      <c r="B167" t="s" s="4">
-        <v>382</v>
       </c>
       <c r="C167" s="21"/>
       <c r="D167" s="20"/>
@@ -28885,10 +28882,10 @@
     </row>
     <row r="168" ht="30" customHeight="1">
       <c r="A168" t="s" s="4">
+        <v>382</v>
+      </c>
+      <c r="B168" t="s" s="4">
         <v>383</v>
-      </c>
-      <c r="B168" t="s" s="4">
-        <v>384</v>
       </c>
       <c r="C168" s="21"/>
       <c r="D168" s="20"/>
@@ -28896,10 +28893,10 @@
     </row>
     <row r="169" ht="30" customHeight="1">
       <c r="A169" t="s" s="4">
+        <v>384</v>
+      </c>
+      <c r="B169" t="s" s="4">
         <v>385</v>
-      </c>
-      <c r="B169" t="s" s="4">
-        <v>386</v>
       </c>
       <c r="C169" s="21"/>
       <c r="D169" s="20"/>
@@ -28907,10 +28904,10 @@
     </row>
     <row r="170" ht="30" customHeight="1">
       <c r="A170" t="s" s="4">
+        <v>386</v>
+      </c>
+      <c r="B170" t="s" s="4">
         <v>387</v>
-      </c>
-      <c r="B170" t="s" s="4">
-        <v>388</v>
       </c>
       <c r="C170" s="21"/>
       <c r="D170" s="20"/>
@@ -28918,10 +28915,10 @@
     </row>
     <row r="171" ht="30" customHeight="1">
       <c r="A171" t="s" s="4">
+        <v>388</v>
+      </c>
+      <c r="B171" t="s" s="4">
         <v>389</v>
-      </c>
-      <c r="B171" t="s" s="4">
-        <v>390</v>
       </c>
       <c r="C171" s="21"/>
       <c r="D171" s="20"/>
@@ -28929,10 +28926,10 @@
     </row>
     <row r="172" ht="30" customHeight="1">
       <c r="A172" t="s" s="4">
+        <v>390</v>
+      </c>
+      <c r="B172" t="s" s="4">
         <v>391</v>
-      </c>
-      <c r="B172" t="s" s="4">
-        <v>392</v>
       </c>
       <c r="C172" s="21"/>
       <c r="D172" s="20"/>
@@ -28940,10 +28937,10 @@
     </row>
     <row r="173" ht="30" customHeight="1">
       <c r="A173" t="s" s="4">
+        <v>392</v>
+      </c>
+      <c r="B173" t="s" s="4">
         <v>393</v>
-      </c>
-      <c r="B173" t="s" s="4">
-        <v>394</v>
       </c>
       <c r="C173" s="21"/>
       <c r="D173" s="20"/>
@@ -28951,10 +28948,10 @@
     </row>
     <row r="174" ht="30" customHeight="1">
       <c r="A174" t="s" s="4">
+        <v>394</v>
+      </c>
+      <c r="B174" t="s" s="4">
         <v>395</v>
-      </c>
-      <c r="B174" t="s" s="4">
-        <v>396</v>
       </c>
       <c r="C174" s="21"/>
       <c r="D174" s="20"/>
@@ -28962,10 +28959,10 @@
     </row>
     <row r="175" ht="30" customHeight="1">
       <c r="A175" t="s" s="4">
+        <v>396</v>
+      </c>
+      <c r="B175" t="s" s="4">
         <v>397</v>
-      </c>
-      <c r="B175" t="s" s="4">
-        <v>398</v>
       </c>
       <c r="C175" s="21"/>
       <c r="D175" s="20"/>
@@ -28973,10 +28970,10 @@
     </row>
     <row r="176" ht="30" customHeight="1">
       <c r="A176" t="s" s="4">
+        <v>398</v>
+      </c>
+      <c r="B176" t="s" s="4">
         <v>399</v>
-      </c>
-      <c r="B176" t="s" s="4">
-        <v>400</v>
       </c>
       <c r="C176" s="21"/>
       <c r="D176" s="20"/>
@@ -28984,10 +28981,10 @@
     </row>
     <row r="177" ht="30" customHeight="1">
       <c r="A177" t="s" s="4">
+        <v>400</v>
+      </c>
+      <c r="B177" t="s" s="4">
         <v>401</v>
-      </c>
-      <c r="B177" t="s" s="4">
-        <v>402</v>
       </c>
       <c r="C177" s="21"/>
       <c r="D177" s="20"/>
@@ -28995,10 +28992,10 @@
     </row>
     <row r="178" ht="30" customHeight="1">
       <c r="A178" t="s" s="4">
+        <v>402</v>
+      </c>
+      <c r="B178" t="s" s="4">
         <v>403</v>
-      </c>
-      <c r="B178" t="s" s="4">
-        <v>404</v>
       </c>
       <c r="C178" s="21"/>
       <c r="D178" s="20"/>
@@ -29006,10 +29003,10 @@
     </row>
     <row r="179" ht="30" customHeight="1">
       <c r="A179" t="s" s="4">
+        <v>404</v>
+      </c>
+      <c r="B179" t="s" s="4">
         <v>405</v>
-      </c>
-      <c r="B179" t="s" s="4">
-        <v>406</v>
       </c>
       <c r="C179" s="21"/>
       <c r="D179" s="20"/>
@@ -29017,10 +29014,10 @@
     </row>
     <row r="180" ht="30" customHeight="1">
       <c r="A180" t="s" s="4">
+        <v>406</v>
+      </c>
+      <c r="B180" t="s" s="4">
         <v>407</v>
-      </c>
-      <c r="B180" t="s" s="4">
-        <v>408</v>
       </c>
       <c r="C180" s="21"/>
       <c r="D180" s="20"/>
@@ -29028,10 +29025,10 @@
     </row>
     <row r="181" ht="30" customHeight="1">
       <c r="A181" t="s" s="4">
+        <v>408</v>
+      </c>
+      <c r="B181" t="s" s="4">
         <v>409</v>
-      </c>
-      <c r="B181" t="s" s="4">
-        <v>410</v>
       </c>
       <c r="C181" s="21"/>
       <c r="D181" s="20"/>
@@ -29039,10 +29036,10 @@
     </row>
     <row r="182" ht="30" customHeight="1">
       <c r="A182" t="s" s="4">
+        <v>410</v>
+      </c>
+      <c r="B182" t="s" s="4">
         <v>411</v>
-      </c>
-      <c r="B182" t="s" s="4">
-        <v>412</v>
       </c>
       <c r="C182" s="21"/>
       <c r="D182" s="20"/>
@@ -29050,10 +29047,10 @@
     </row>
     <row r="183" ht="30" customHeight="1">
       <c r="A183" t="s" s="4">
+        <v>412</v>
+      </c>
+      <c r="B183" t="s" s="4">
         <v>413</v>
-      </c>
-      <c r="B183" t="s" s="4">
-        <v>414</v>
       </c>
       <c r="C183" s="21"/>
       <c r="D183" s="20"/>
@@ -29061,10 +29058,10 @@
     </row>
     <row r="184" ht="30" customHeight="1">
       <c r="A184" t="s" s="4">
+        <v>414</v>
+      </c>
+      <c r="B184" t="s" s="4">
         <v>415</v>
-      </c>
-      <c r="B184" t="s" s="4">
-        <v>416</v>
       </c>
       <c r="C184" s="21"/>
       <c r="D184" s="20"/>
@@ -29072,10 +29069,10 @@
     </row>
     <row r="185" ht="30" customHeight="1">
       <c r="A185" t="s" s="4">
+        <v>416</v>
+      </c>
+      <c r="B185" t="s" s="4">
         <v>417</v>
-      </c>
-      <c r="B185" t="s" s="4">
-        <v>418</v>
       </c>
       <c r="C185" s="21"/>
       <c r="D185" s="20"/>
@@ -29083,10 +29080,10 @@
     </row>
     <row r="186" ht="30" customHeight="1">
       <c r="A186" t="s" s="4">
+        <v>418</v>
+      </c>
+      <c r="B186" t="s" s="4">
         <v>419</v>
-      </c>
-      <c r="B186" t="s" s="4">
-        <v>420</v>
       </c>
       <c r="C186" s="21"/>
       <c r="D186" s="20"/>
@@ -29094,10 +29091,10 @@
     </row>
     <row r="187" ht="30" customHeight="1">
       <c r="A187" t="s" s="4">
+        <v>420</v>
+      </c>
+      <c r="B187" t="s" s="4">
         <v>421</v>
-      </c>
-      <c r="B187" t="s" s="4">
-        <v>422</v>
       </c>
       <c r="C187" s="21"/>
       <c r="D187" s="20"/>
@@ -29105,10 +29102,10 @@
     </row>
     <row r="188" ht="30" customHeight="1">
       <c r="A188" t="s" s="4">
+        <v>422</v>
+      </c>
+      <c r="B188" t="s" s="4">
         <v>423</v>
-      </c>
-      <c r="B188" t="s" s="4">
-        <v>424</v>
       </c>
       <c r="C188" s="21"/>
       <c r="D188" s="20"/>
@@ -29116,10 +29113,10 @@
     </row>
     <row r="189" ht="30" customHeight="1">
       <c r="A189" t="s" s="4">
+        <v>424</v>
+      </c>
+      <c r="B189" t="s" s="4">
         <v>425</v>
-      </c>
-      <c r="B189" t="s" s="4">
-        <v>426</v>
       </c>
       <c r="C189" s="21"/>
       <c r="D189" s="20"/>
@@ -29127,10 +29124,10 @@
     </row>
     <row r="190" ht="30" customHeight="1">
       <c r="A190" t="s" s="4">
+        <v>426</v>
+      </c>
+      <c r="B190" t="s" s="4">
         <v>427</v>
-      </c>
-      <c r="B190" t="s" s="4">
-        <v>428</v>
       </c>
       <c r="C190" s="21"/>
       <c r="D190" s="20"/>
@@ -29138,10 +29135,10 @@
     </row>
     <row r="191" ht="30" customHeight="1">
       <c r="A191" t="s" s="4">
+        <v>428</v>
+      </c>
+      <c r="B191" t="s" s="4">
         <v>429</v>
-      </c>
-      <c r="B191" t="s" s="4">
-        <v>430</v>
       </c>
       <c r="C191" s="21"/>
       <c r="D191" s="20"/>
@@ -29149,10 +29146,10 @@
     </row>
     <row r="192" ht="30" customHeight="1">
       <c r="A192" t="s" s="4">
+        <v>430</v>
+      </c>
+      <c r="B192" t="s" s="4">
         <v>431</v>
-      </c>
-      <c r="B192" t="s" s="4">
-        <v>432</v>
       </c>
       <c r="C192" s="21"/>
       <c r="D192" s="20"/>
@@ -29160,10 +29157,10 @@
     </row>
     <row r="193" ht="30" customHeight="1">
       <c r="A193" t="s" s="4">
+        <v>432</v>
+      </c>
+      <c r="B193" t="s" s="4">
         <v>433</v>
-      </c>
-      <c r="B193" t="s" s="4">
-        <v>434</v>
       </c>
       <c r="C193" s="21"/>
       <c r="D193" s="20"/>
@@ -29171,10 +29168,10 @@
     </row>
     <row r="194" ht="30" customHeight="1">
       <c r="A194" t="s" s="4">
+        <v>434</v>
+      </c>
+      <c r="B194" t="s" s="4">
         <v>435</v>
-      </c>
-      <c r="B194" t="s" s="4">
-        <v>436</v>
       </c>
       <c r="C194" s="21"/>
       <c r="D194" s="20"/>
@@ -29182,10 +29179,10 @@
     </row>
     <row r="195" ht="30" customHeight="1">
       <c r="A195" t="s" s="4">
+        <v>436</v>
+      </c>
+      <c r="B195" t="s" s="4">
         <v>437</v>
-      </c>
-      <c r="B195" t="s" s="4">
-        <v>438</v>
       </c>
       <c r="C195" s="21"/>
       <c r="D195" s="20"/>
@@ -29193,10 +29190,10 @@
     </row>
     <row r="196" ht="30" customHeight="1">
       <c r="A196" t="s" s="4">
+        <v>438</v>
+      </c>
+      <c r="B196" t="s" s="4">
         <v>439</v>
-      </c>
-      <c r="B196" t="s" s="4">
-        <v>440</v>
       </c>
       <c r="C196" s="21"/>
       <c r="D196" s="20"/>
@@ -29204,10 +29201,10 @@
     </row>
     <row r="197" ht="30" customHeight="1">
       <c r="A197" t="s" s="4">
+        <v>440</v>
+      </c>
+      <c r="B197" t="s" s="4">
         <v>441</v>
-      </c>
-      <c r="B197" t="s" s="4">
-        <v>442</v>
       </c>
       <c r="C197" s="21"/>
       <c r="D197" s="20"/>
@@ -29215,10 +29212,10 @@
     </row>
     <row r="198" ht="30" customHeight="1">
       <c r="A198" t="s" s="4">
+        <v>442</v>
+      </c>
+      <c r="B198" t="s" s="4">
         <v>443</v>
-      </c>
-      <c r="B198" t="s" s="4">
-        <v>444</v>
       </c>
       <c r="C198" s="21"/>
       <c r="D198" s="20"/>
@@ -29226,10 +29223,10 @@
     </row>
     <row r="199" ht="30" customHeight="1">
       <c r="A199" t="s" s="4">
+        <v>444</v>
+      </c>
+      <c r="B199" t="s" s="4">
         <v>445</v>
-      </c>
-      <c r="B199" t="s" s="4">
-        <v>446</v>
       </c>
       <c r="C199" s="21"/>
       <c r="D199" s="20"/>
@@ -29237,10 +29234,10 @@
     </row>
     <row r="200" ht="30" customHeight="1">
       <c r="A200" t="s" s="4">
+        <v>446</v>
+      </c>
+      <c r="B200" t="s" s="4">
         <v>447</v>
-      </c>
-      <c r="B200" t="s" s="4">
-        <v>448</v>
       </c>
       <c r="C200" s="21"/>
       <c r="D200" s="20"/>
@@ -29248,10 +29245,10 @@
     </row>
     <row r="201" ht="30" customHeight="1">
       <c r="A201" t="s" s="4">
+        <v>448</v>
+      </c>
+      <c r="B201" t="s" s="4">
         <v>449</v>
-      </c>
-      <c r="B201" t="s" s="4">
-        <v>450</v>
       </c>
       <c r="C201" s="21"/>
       <c r="D201" s="20"/>
@@ -29259,10 +29256,10 @@
     </row>
     <row r="202" ht="30" customHeight="1">
       <c r="A202" t="s" s="4">
+        <v>450</v>
+      </c>
+      <c r="B202" t="s" s="4">
         <v>451</v>
-      </c>
-      <c r="B202" t="s" s="4">
-        <v>452</v>
       </c>
       <c r="C202" s="21"/>
       <c r="D202" s="20"/>
@@ -29270,10 +29267,10 @@
     </row>
     <row r="203" ht="30" customHeight="1">
       <c r="A203" t="s" s="4">
+        <v>452</v>
+      </c>
+      <c r="B203" t="s" s="4">
         <v>453</v>
-      </c>
-      <c r="B203" t="s" s="4">
-        <v>454</v>
       </c>
       <c r="C203" s="21"/>
       <c r="D203" s="20"/>
@@ -29281,10 +29278,10 @@
     </row>
     <row r="204" ht="30" customHeight="1">
       <c r="A204" t="s" s="4">
+        <v>454</v>
+      </c>
+      <c r="B204" t="s" s="4">
         <v>455</v>
-      </c>
-      <c r="B204" t="s" s="4">
-        <v>456</v>
       </c>
       <c r="C204" s="21"/>
       <c r="D204" s="20"/>
@@ -29292,10 +29289,10 @@
     </row>
     <row r="205" ht="30" customHeight="1">
       <c r="A205" t="s" s="4">
+        <v>456</v>
+      </c>
+      <c r="B205" t="s" s="4">
         <v>457</v>
-      </c>
-      <c r="B205" t="s" s="4">
-        <v>458</v>
       </c>
       <c r="C205" s="21"/>
       <c r="D205" s="20"/>
@@ -29303,10 +29300,10 @@
     </row>
     <row r="206" ht="30" customHeight="1">
       <c r="A206" t="s" s="4">
+        <v>458</v>
+      </c>
+      <c r="B206" t="s" s="4">
         <v>459</v>
-      </c>
-      <c r="B206" t="s" s="4">
-        <v>460</v>
       </c>
       <c r="C206" s="21"/>
       <c r="D206" s="20"/>
@@ -29314,10 +29311,10 @@
     </row>
     <row r="207" ht="30" customHeight="1">
       <c r="A207" t="s" s="4">
+        <v>460</v>
+      </c>
+      <c r="B207" t="s" s="4">
         <v>461</v>
-      </c>
-      <c r="B207" t="s" s="4">
-        <v>462</v>
       </c>
       <c r="C207" s="21"/>
       <c r="D207" s="20"/>
@@ -29325,10 +29322,10 @@
     </row>
     <row r="208" ht="30" customHeight="1">
       <c r="A208" t="s" s="4">
+        <v>462</v>
+      </c>
+      <c r="B208" t="s" s="4">
         <v>463</v>
-      </c>
-      <c r="B208" t="s" s="4">
-        <v>464</v>
       </c>
       <c r="C208" s="21"/>
       <c r="D208" s="20"/>
@@ -29336,10 +29333,10 @@
     </row>
     <row r="209" ht="30" customHeight="1">
       <c r="A209" t="s" s="4">
+        <v>464</v>
+      </c>
+      <c r="B209" t="s" s="4">
         <v>465</v>
-      </c>
-      <c r="B209" t="s" s="4">
-        <v>466</v>
       </c>
       <c r="C209" s="21"/>
       <c r="D209" s="20"/>
@@ -29347,10 +29344,10 @@
     </row>
     <row r="210" ht="30" customHeight="1">
       <c r="A210" t="s" s="4">
+        <v>466</v>
+      </c>
+      <c r="B210" t="s" s="4">
         <v>467</v>
-      </c>
-      <c r="B210" t="s" s="4">
-        <v>468</v>
       </c>
       <c r="C210" s="21"/>
       <c r="D210" s="20"/>
@@ -29358,10 +29355,10 @@
     </row>
     <row r="211" ht="30" customHeight="1">
       <c r="A211" t="s" s="4">
+        <v>468</v>
+      </c>
+      <c r="B211" t="s" s="4">
         <v>469</v>
-      </c>
-      <c r="B211" t="s" s="4">
-        <v>470</v>
       </c>
       <c r="C211" s="21"/>
       <c r="D211" s="20"/>
@@ -29369,10 +29366,10 @@
     </row>
     <row r="212" ht="30" customHeight="1">
       <c r="A212" t="s" s="4">
+        <v>470</v>
+      </c>
+      <c r="B212" t="s" s="4">
         <v>471</v>
-      </c>
-      <c r="B212" t="s" s="4">
-        <v>472</v>
       </c>
       <c r="C212" s="21"/>
       <c r="D212" s="20"/>
@@ -29380,10 +29377,10 @@
     </row>
     <row r="213" ht="30" customHeight="1">
       <c r="A213" t="s" s="4">
+        <v>472</v>
+      </c>
+      <c r="B213" t="s" s="4">
         <v>473</v>
-      </c>
-      <c r="B213" t="s" s="4">
-        <v>474</v>
       </c>
       <c r="C213" s="21"/>
       <c r="D213" s="20"/>
@@ -29413,7 +29410,7 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="20"/>
@@ -29422,7 +29419,7 @@
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="20"/>
@@ -29431,7 +29428,7 @@
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="20"/>
@@ -29440,7 +29437,7 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" t="s" s="4">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="20"/>
@@ -29449,7 +29446,7 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="20"/>
@@ -29458,7 +29455,7 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="20"/>
@@ -29467,7 +29464,7 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s" s="4">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="20"/>
@@ -29476,7 +29473,7 @@
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" t="s" s="4">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="20"/>
@@ -29485,7 +29482,7 @@
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" t="s" s="4">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="20"/>
@@ -29494,7 +29491,7 @@
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" t="s" s="4">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="20"/>
@@ -29503,7 +29500,7 @@
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" t="s" s="4">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="20"/>
@@ -29512,7 +29509,7 @@
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" t="s" s="4">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="20"/>
@@ -29521,7 +29518,7 @@
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" t="s" s="4">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="20"/>
@@ -29530,7 +29527,7 @@
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" t="s" s="4">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="20"/>
@@ -29539,7 +29536,7 @@
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" t="s" s="4">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="20"/>
@@ -29548,7 +29545,7 @@
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="A16" t="s" s="4">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="20"/>
@@ -29557,7 +29554,7 @@
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" t="s" s="4">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="20"/>
@@ -29566,7 +29563,7 @@
     </row>
     <row r="18" ht="30" customHeight="1">
       <c r="A18" t="s" s="4">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="20"/>
@@ -29575,7 +29572,7 @@
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" t="s" s="4">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="20"/>
@@ -29584,7 +29581,7 @@
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" t="s" s="4">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="20"/>
@@ -29593,7 +29590,7 @@
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" t="s" s="4">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="20"/>
@@ -29602,7 +29599,7 @@
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" t="s" s="4">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="20"/>
@@ -29611,7 +29608,7 @@
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" t="s" s="4">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="20"/>
@@ -29620,7 +29617,7 @@
     </row>
     <row r="24" ht="30" customHeight="1">
       <c r="A24" t="s" s="4">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="20"/>
@@ -29629,7 +29626,7 @@
     </row>
     <row r="25" ht="30" customHeight="1">
       <c r="A25" t="s" s="4">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="20"/>
@@ -29638,7 +29635,7 @@
     </row>
     <row r="26" ht="30" customHeight="1">
       <c r="A26" t="s" s="4">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="20"/>
@@ -29647,7 +29644,7 @@
     </row>
     <row r="27" ht="30" customHeight="1">
       <c r="A27" t="s" s="4">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="20"/>
@@ -29656,7 +29653,7 @@
     </row>
     <row r="28" ht="30" customHeight="1">
       <c r="A28" t="s" s="4">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="20"/>
@@ -29665,7 +29662,7 @@
     </row>
     <row r="29" ht="30" customHeight="1">
       <c r="A29" t="s" s="4">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="20"/>
@@ -29696,7 +29693,7 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="20"/>
@@ -29705,7 +29702,7 @@
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="20"/>
@@ -29714,7 +29711,7 @@
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="20"/>
@@ -29723,7 +29720,7 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" t="s" s="4">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="20"/>
@@ -29732,7 +29729,7 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="20"/>
@@ -29741,7 +29738,7 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="20"/>
@@ -29750,7 +29747,7 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s" s="4">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="20"/>
@@ -29759,7 +29756,7 @@
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" t="s" s="4">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="20"/>
@@ -29768,7 +29765,7 @@
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" t="s" s="4">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="20"/>
@@ -29777,7 +29774,7 @@
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" t="s" s="4">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="20"/>
@@ -29786,7 +29783,7 @@
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" t="s" s="4">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="20"/>
@@ -29795,7 +29792,7 @@
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" t="s" s="4">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="20"/>
@@ -29804,7 +29801,7 @@
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" t="s" s="4">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="20"/>
@@ -29813,7 +29810,7 @@
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" t="s" s="4">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="20"/>
@@ -29822,7 +29819,7 @@
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" t="s" s="4">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="20"/>
@@ -29831,7 +29828,7 @@
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="A16" t="s" s="4">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="20"/>
@@ -29840,7 +29837,7 @@
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" t="s" s="4">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="20"/>
@@ -29849,7 +29846,7 @@
     </row>
     <row r="18" ht="30" customHeight="1">
       <c r="A18" t="s" s="4">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="20"/>
@@ -29858,7 +29855,7 @@
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" t="s" s="4">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="20"/>
@@ -29867,7 +29864,7 @@
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" t="s" s="4">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="20"/>
@@ -29876,7 +29873,7 @@
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" t="s" s="4">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="20"/>
@@ -29885,7 +29882,7 @@
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" t="s" s="4">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="20"/>
@@ -29894,7 +29891,7 @@
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" t="s" s="4">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="20"/>
@@ -29903,7 +29900,7 @@
     </row>
     <row r="24" ht="30" customHeight="1">
       <c r="A24" t="s" s="4">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="20"/>
@@ -29912,7 +29909,7 @@
     </row>
     <row r="25" ht="30" customHeight="1">
       <c r="A25" t="s" s="4">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="20"/>
@@ -29921,7 +29918,7 @@
     </row>
     <row r="26" ht="30" customHeight="1">
       <c r="A26" t="s" s="4">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="20"/>
@@ -29930,7 +29927,7 @@
     </row>
     <row r="27" ht="30" customHeight="1">
       <c r="A27" t="s" s="4">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="20"/>
@@ -29939,7 +29936,7 @@
     </row>
     <row r="28" ht="30" customHeight="1">
       <c r="A28" t="s" s="4">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="20"/>
@@ -29948,7 +29945,7 @@
     </row>
     <row r="29" ht="30" customHeight="1">
       <c r="A29" t="s" s="4">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="20"/>
@@ -29957,7 +29954,7 @@
     </row>
     <row r="30" ht="30" customHeight="1">
       <c r="A30" t="s" s="4">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="20"/>
@@ -29988,7 +29985,7 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="20"/>
@@ -29997,7 +29994,7 @@
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="20"/>
@@ -30006,7 +30003,7 @@
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="20"/>
@@ -30015,7 +30012,7 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" t="s" s="4">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="20"/>
@@ -30024,7 +30021,7 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="20"/>
@@ -30033,7 +30030,7 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="20"/>
@@ -30042,7 +30039,7 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s" s="4">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="20"/>
@@ -30051,7 +30048,7 @@
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" t="s" s="4">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="20"/>
@@ -30060,7 +30057,7 @@
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" t="s" s="4">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="20"/>
@@ -30069,7 +30066,7 @@
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" t="s" s="4">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="20"/>
@@ -30101,10 +30098,10 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="20"/>
@@ -30112,10 +30109,10 @@
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" t="s" s="4">
+        <v>517</v>
+      </c>
+      <c r="B2" t="s" s="4">
         <v>518</v>
-      </c>
-      <c r="B2" t="s" s="4">
-        <v>519</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="20"/>
@@ -30123,10 +30120,10 @@
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" t="s" s="4">
+        <v>519</v>
+      </c>
+      <c r="B3" t="s" s="4">
         <v>520</v>
-      </c>
-      <c r="B3" t="s" s="4">
-        <v>521</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="20"/>
@@ -30134,10 +30131,10 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" t="s" s="4">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="20"/>
@@ -30145,10 +30142,10 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="20"/>
@@ -30156,10 +30153,10 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" t="s" s="4">
+        <v>523</v>
+      </c>
+      <c r="B6" t="s" s="4">
         <v>524</v>
-      </c>
-      <c r="B6" t="s" s="4">
-        <v>525</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="20"/>
@@ -30167,10 +30164,10 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s" s="4">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="20"/>
@@ -30178,10 +30175,10 @@
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" t="s" s="4">
+        <v>526</v>
+      </c>
+      <c r="B8" t="s" s="4">
         <v>527</v>
-      </c>
-      <c r="B8" t="s" s="4">
-        <v>528</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="20"/>
@@ -30189,10 +30186,10 @@
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" t="s" s="4">
+        <v>528</v>
+      </c>
+      <c r="B9" t="s" s="4">
         <v>529</v>
-      </c>
-      <c r="B9" t="s" s="4">
-        <v>530</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="20"/>
@@ -30200,10 +30197,10 @@
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" t="s" s="4">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="20"/>
@@ -30211,10 +30208,10 @@
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" t="s" s="4">
+        <v>531</v>
+      </c>
+      <c r="B11" t="s" s="4">
         <v>532</v>
-      </c>
-      <c r="B11" t="s" s="4">
-        <v>533</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="20"/>
@@ -30222,10 +30219,10 @@
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" t="s" s="4">
+        <v>533</v>
+      </c>
+      <c r="B12" t="s" s="4">
         <v>534</v>
-      </c>
-      <c r="B12" t="s" s="4">
-        <v>535</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="20"/>
@@ -30256,10 +30253,10 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="20"/>
@@ -30267,10 +30264,10 @@
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" t="s" s="4">
+        <v>535</v>
+      </c>
+      <c r="B2" t="s" s="4">
         <v>536</v>
-      </c>
-      <c r="B2" t="s" s="4">
-        <v>537</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="20"/>
@@ -30278,10 +30275,10 @@
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" t="s" s="4">
+        <v>537</v>
+      </c>
+      <c r="B3" t="s" s="4">
         <v>538</v>
-      </c>
-      <c r="B3" t="s" s="4">
-        <v>539</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="20"/>
@@ -30289,10 +30286,10 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" t="s" s="4">
+        <v>539</v>
+      </c>
+      <c r="B4" t="s" s="4">
         <v>540</v>
-      </c>
-      <c r="B4" t="s" s="4">
-        <v>541</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="20"/>
@@ -30300,10 +30297,10 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="20"/>
@@ -30311,10 +30308,10 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="20"/>
@@ -30322,10 +30319,10 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s" s="4">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="20"/>
@@ -30333,10 +30330,10 @@
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" t="s" s="4">
+        <v>544</v>
+      </c>
+      <c r="B8" t="s" s="4">
         <v>545</v>
-      </c>
-      <c r="B8" t="s" s="4">
-        <v>546</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="20"/>
@@ -30344,10 +30341,10 @@
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" t="s" s="4">
+        <v>546</v>
+      </c>
+      <c r="B9" t="s" s="4">
         <v>547</v>
-      </c>
-      <c r="B9" t="s" s="4">
-        <v>548</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="20"/>
@@ -30355,10 +30352,10 @@
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" t="s" s="4">
+        <v>548</v>
+      </c>
+      <c r="B10" t="s" s="4">
         <v>549</v>
-      </c>
-      <c r="B10" t="s" s="4">
-        <v>550</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="20"/>
@@ -30366,10 +30363,10 @@
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" t="s" s="4">
+        <v>550</v>
+      </c>
+      <c r="B11" t="s" s="4">
         <v>551</v>
-      </c>
-      <c r="B11" t="s" s="4">
-        <v>552</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="20"/>
@@ -30377,10 +30374,10 @@
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" t="s" s="4">
+        <v>552</v>
+      </c>
+      <c r="B12" t="s" s="4">
         <v>553</v>
-      </c>
-      <c r="B12" t="s" s="4">
-        <v>554</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="20"/>
@@ -30388,10 +30385,10 @@
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" t="s" s="4">
+        <v>554</v>
+      </c>
+      <c r="B13" t="s" s="4">
         <v>555</v>
-      </c>
-      <c r="B13" t="s" s="4">
-        <v>556</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="20"/>
@@ -30399,10 +30396,10 @@
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" t="s" s="4">
+        <v>556</v>
+      </c>
+      <c r="B14" t="s" s="4">
         <v>557</v>
-      </c>
-      <c r="B14" t="s" s="4">
-        <v>558</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="20"/>
@@ -30410,10 +30407,10 @@
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" t="s" s="4">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="20"/>
@@ -30421,10 +30418,10 @@
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="A16" t="s" s="4">
+        <v>558</v>
+      </c>
+      <c r="B16" t="s" s="4">
         <v>559</v>
-      </c>
-      <c r="B16" t="s" s="4">
-        <v>560</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="20"/>
@@ -30432,10 +30429,10 @@
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" t="s" s="4">
+        <v>560</v>
+      </c>
+      <c r="B17" t="s" s="4">
         <v>561</v>
-      </c>
-      <c r="B17" t="s" s="4">
-        <v>562</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="20"/>
@@ -30443,10 +30440,10 @@
     </row>
     <row r="18" ht="30" customHeight="1">
       <c r="A18" t="s" s="4">
+        <v>562</v>
+      </c>
+      <c r="B18" t="s" s="4">
         <v>563</v>
-      </c>
-      <c r="B18" t="s" s="4">
-        <v>564</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="20"/>
@@ -30454,10 +30451,10 @@
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" t="s" s="4">
+        <v>564</v>
+      </c>
+      <c r="B19" t="s" s="4">
         <v>565</v>
-      </c>
-      <c r="B19" t="s" s="4">
-        <v>566</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="20"/>
@@ -30465,10 +30462,10 @@
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" t="s" s="4">
+        <v>566</v>
+      </c>
+      <c r="B20" t="s" s="4">
         <v>567</v>
-      </c>
-      <c r="B20" t="s" s="4">
-        <v>568</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="20"/>
@@ -30476,10 +30473,10 @@
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" t="s" s="4">
+        <v>568</v>
+      </c>
+      <c r="B21" t="s" s="4">
         <v>569</v>
-      </c>
-      <c r="B21" t="s" s="4">
-        <v>570</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="20"/>
@@ -30487,10 +30484,10 @@
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" t="s" s="4">
+        <v>570</v>
+      </c>
+      <c r="B22" t="s" s="4">
         <v>571</v>
-      </c>
-      <c r="B22" t="s" s="4">
-        <v>572</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="20"/>
@@ -30498,10 +30495,10 @@
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" t="s" s="4">
+        <v>572</v>
+      </c>
+      <c r="B23" t="s" s="4">
         <v>573</v>
-      </c>
-      <c r="B23" t="s" s="4">
-        <v>574</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="20"/>
@@ -30509,10 +30506,10 @@
     </row>
     <row r="24" ht="30" customHeight="1">
       <c r="A24" t="s" s="4">
+        <v>574</v>
+      </c>
+      <c r="B24" t="s" s="4">
         <v>575</v>
-      </c>
-      <c r="B24" t="s" s="4">
-        <v>576</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="20"/>
@@ -30520,10 +30517,10 @@
     </row>
     <row r="25" ht="30" customHeight="1">
       <c r="A25" t="s" s="4">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="20"/>
@@ -30531,10 +30528,10 @@
     </row>
     <row r="26" ht="30" customHeight="1">
       <c r="A26" t="s" s="4">
+        <v>577</v>
+      </c>
+      <c r="B26" t="s" s="4">
         <v>578</v>
-      </c>
-      <c r="B26" t="s" s="4">
-        <v>579</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="20"/>
@@ -30565,10 +30562,10 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="20"/>
@@ -30576,10 +30573,10 @@
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="20"/>
@@ -30587,10 +30584,10 @@
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="20"/>
@@ -30598,10 +30595,10 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" t="s" s="4">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="20"/>
@@ -30609,10 +30606,10 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="20"/>
@@ -30620,10 +30617,10 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="20"/>
@@ -30631,10 +30628,10 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s" s="4">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="20"/>
@@ -30642,10 +30639,10 @@
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" t="s" s="4">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="20"/>
@@ -30653,10 +30650,10 @@
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" t="s" s="4">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="20"/>
@@ -30664,10 +30661,10 @@
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" t="s" s="4">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="20"/>
@@ -30675,10 +30672,10 @@
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" t="s" s="4">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="20"/>
@@ -30686,10 +30683,10 @@
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" t="s" s="4">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="20"/>
@@ -30697,10 +30694,10 @@
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" t="s" s="4">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="20"/>
@@ -30708,10 +30705,10 @@
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" t="s" s="4">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="20"/>
@@ -30719,10 +30716,10 @@
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" t="s" s="4">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="20"/>
@@ -30730,10 +30727,10 @@
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="A16" t="s" s="4">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="20"/>
@@ -30741,10 +30738,10 @@
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" t="s" s="4">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="20"/>
@@ -30752,10 +30749,10 @@
     </row>
     <row r="18" ht="30" customHeight="1">
       <c r="A18" t="s" s="4">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="20"/>
@@ -30763,10 +30760,10 @@
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" t="s" s="4">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="20"/>
@@ -30774,10 +30771,10 @@
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" t="s" s="4">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="20"/>
@@ -30785,10 +30782,10 @@
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" t="s" s="4">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="20"/>
@@ -30796,10 +30793,10 @@
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" t="s" s="4">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="20"/>
@@ -30807,10 +30804,10 @@
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" t="s" s="4">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="20"/>
@@ -30818,10 +30815,10 @@
     </row>
     <row r="24" ht="30" customHeight="1">
       <c r="A24" t="s" s="4">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="20"/>
@@ -30829,10 +30826,10 @@
     </row>
     <row r="25" ht="30" customHeight="1">
       <c r="A25" t="s" s="4">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="20"/>
@@ -30840,10 +30837,10 @@
     </row>
     <row r="26" ht="30" customHeight="1">
       <c r="A26" t="s" s="4">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="20"/>
@@ -30851,10 +30848,10 @@
     </row>
     <row r="27" ht="30" customHeight="1">
       <c r="A27" t="s" s="4">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="20"/>
@@ -30862,10 +30859,10 @@
     </row>
     <row r="28" ht="30" customHeight="1">
       <c r="A28" t="s" s="4">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="20"/>
@@ -30873,10 +30870,10 @@
     </row>
     <row r="29" ht="30" customHeight="1">
       <c r="A29" t="s" s="4">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="20"/>
@@ -30884,10 +30881,10 @@
     </row>
     <row r="30" ht="30" customHeight="1">
       <c r="A30" t="s" s="4">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="20"/>
@@ -30895,10 +30892,10 @@
     </row>
     <row r="31" ht="30" customHeight="1">
       <c r="A31" t="s" s="4">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="20"/>
@@ -30906,10 +30903,10 @@
     </row>
     <row r="32" ht="30" customHeight="1">
       <c r="A32" t="s" s="4">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="20"/>
@@ -30917,10 +30914,10 @@
     </row>
     <row r="33" ht="30" customHeight="1">
       <c r="A33" t="s" s="4">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="20"/>
@@ -30928,10 +30925,10 @@
     </row>
     <row r="34" ht="30" customHeight="1">
       <c r="A34" t="s" s="4">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="20"/>
@@ -30939,10 +30936,10 @@
     </row>
     <row r="35" ht="30" customHeight="1">
       <c r="A35" t="s" s="4">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="20"/>
@@ -30950,10 +30947,10 @@
     </row>
     <row r="36" ht="30" customHeight="1">
       <c r="A36" t="s" s="4">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="20"/>
@@ -30961,10 +30958,10 @@
     </row>
     <row r="37" ht="30" customHeight="1">
       <c r="A37" t="s" s="4">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="20"/>
@@ -30972,10 +30969,10 @@
     </row>
     <row r="38" ht="30" customHeight="1">
       <c r="A38" t="s" s="4">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="20"/>
@@ -30983,10 +30980,10 @@
     </row>
     <row r="39" ht="30" customHeight="1">
       <c r="A39" t="s" s="4">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="20"/>
@@ -30994,10 +30991,10 @@
     </row>
     <row r="40" ht="30" customHeight="1">
       <c r="A40" t="s" s="4">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C40" s="21"/>
       <c r="D40" s="20"/>
@@ -31005,10 +31002,10 @@
     </row>
     <row r="41" ht="30" customHeight="1">
       <c r="A41" t="s" s="4">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="20"/>
@@ -31016,10 +31013,10 @@
     </row>
     <row r="42" ht="30" customHeight="1">
       <c r="A42" t="s" s="4">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="20"/>
@@ -31027,10 +31024,10 @@
     </row>
     <row r="43" ht="30" customHeight="1">
       <c r="A43" t="s" s="4">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="20"/>
@@ -31038,10 +31035,10 @@
     </row>
     <row r="44" ht="30" customHeight="1">
       <c r="A44" t="s" s="4">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="20"/>
@@ -31049,10 +31046,10 @@
     </row>
     <row r="45" ht="30" customHeight="1">
       <c r="A45" t="s" s="4">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="20"/>
@@ -31060,10 +31057,10 @@
     </row>
     <row r="46" ht="30" customHeight="1">
       <c r="A46" t="s" s="4">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="20"/>
@@ -31071,10 +31068,10 @@
     </row>
     <row r="47" ht="30" customHeight="1">
       <c r="A47" t="s" s="4">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="20"/>
@@ -31082,10 +31079,10 @@
     </row>
     <row r="48" ht="30" customHeight="1">
       <c r="A48" t="s" s="4">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="20"/>
@@ -31093,10 +31090,10 @@
     </row>
     <row r="49" ht="30" customHeight="1">
       <c r="A49" t="s" s="4">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C49" s="21"/>
       <c r="D49" s="20"/>
@@ -31104,10 +31101,10 @@
     </row>
     <row r="50" ht="30" customHeight="1">
       <c r="A50" t="s" s="4">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="20"/>
@@ -31115,10 +31112,10 @@
     </row>
     <row r="51" ht="30" customHeight="1">
       <c r="A51" t="s" s="4">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="20"/>
@@ -31126,10 +31123,10 @@
     </row>
     <row r="52" ht="30" customHeight="1">
       <c r="A52" t="s" s="4">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="20"/>
@@ -31137,10 +31134,10 @@
     </row>
     <row r="53" ht="30" customHeight="1">
       <c r="A53" t="s" s="4">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="20"/>
@@ -31148,10 +31145,10 @@
     </row>
     <row r="54" ht="30" customHeight="1">
       <c r="A54" t="s" s="4">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="20"/>
@@ -31159,10 +31156,10 @@
     </row>
     <row r="55" ht="30" customHeight="1">
       <c r="A55" t="s" s="4">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="20"/>
@@ -31170,10 +31167,10 @@
     </row>
     <row r="56" ht="30" customHeight="1">
       <c r="A56" t="s" s="4">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="20"/>
@@ -31181,10 +31178,10 @@
     </row>
     <row r="57" ht="30" customHeight="1">
       <c r="A57" t="s" s="4">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="20"/>
@@ -31192,10 +31189,10 @@
     </row>
     <row r="58" ht="30" customHeight="1">
       <c r="A58" t="s" s="4">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="20"/>
@@ -31203,10 +31200,10 @@
     </row>
     <row r="59" ht="30" customHeight="1">
       <c r="A59" t="s" s="4">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C59" s="21"/>
       <c r="D59" s="20"/>
@@ -31214,10 +31211,10 @@
     </row>
     <row r="60" ht="30" customHeight="1">
       <c r="A60" t="s" s="4">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C60" s="21"/>
       <c r="D60" s="20"/>
@@ -31225,10 +31222,10 @@
     </row>
     <row r="61" ht="30" customHeight="1">
       <c r="A61" t="s" s="4">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C61" s="21"/>
       <c r="D61" s="20"/>
@@ -31236,10 +31233,10 @@
     </row>
     <row r="62" ht="30" customHeight="1">
       <c r="A62" t="s" s="4">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C62" s="21"/>
       <c r="D62" s="20"/>
@@ -31247,10 +31244,10 @@
     </row>
     <row r="63" ht="30" customHeight="1">
       <c r="A63" t="s" s="4">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C63" s="21"/>
       <c r="D63" s="20"/>
@@ -31258,10 +31255,10 @@
     </row>
     <row r="64" ht="30" customHeight="1">
       <c r="A64" t="s" s="4">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C64" s="21"/>
       <c r="D64" s="20"/>
@@ -31269,10 +31266,10 @@
     </row>
     <row r="65" ht="30" customHeight="1">
       <c r="A65" t="s" s="4">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C65" s="21"/>
       <c r="D65" s="20"/>
@@ -31280,10 +31277,10 @@
     </row>
     <row r="66" ht="30" customHeight="1">
       <c r="A66" t="s" s="4">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C66" s="21"/>
       <c r="D66" s="20"/>
@@ -31291,10 +31288,10 @@
     </row>
     <row r="67" ht="30" customHeight="1">
       <c r="A67" t="s" s="4">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B67" t="s" s="4">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C67" s="21"/>
       <c r="D67" s="20"/>
@@ -31302,10 +31299,10 @@
     </row>
     <row r="68" ht="30" customHeight="1">
       <c r="A68" t="s" s="4">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B68" t="s" s="4">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C68" s="21"/>
       <c r="D68" s="20"/>
@@ -31313,10 +31310,10 @@
     </row>
     <row r="69" ht="30" customHeight="1">
       <c r="A69" t="s" s="4">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B69" t="s" s="4">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C69" s="21"/>
       <c r="D69" s="20"/>
@@ -31324,10 +31321,10 @@
     </row>
     <row r="70" ht="30" customHeight="1">
       <c r="A70" t="s" s="4">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B70" t="s" s="4">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C70" s="21"/>
       <c r="D70" s="20"/>
@@ -31335,10 +31332,10 @@
     </row>
     <row r="71" ht="30" customHeight="1">
       <c r="A71" t="s" s="4">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B71" t="s" s="4">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C71" s="21"/>
       <c r="D71" s="20"/>
@@ -31346,10 +31343,10 @@
     </row>
     <row r="72" ht="30" customHeight="1">
       <c r="A72" t="s" s="4">
+        <v>572</v>
+      </c>
+      <c r="B72" t="s" s="4">
         <v>573</v>
-      </c>
-      <c r="B72" t="s" s="4">
-        <v>574</v>
       </c>
       <c r="C72" s="21"/>
       <c r="D72" s="20"/>
@@ -31357,10 +31354,10 @@
     </row>
     <row r="73" ht="30" customHeight="1">
       <c r="A73" t="s" s="4">
+        <v>568</v>
+      </c>
+      <c r="B73" t="s" s="4">
         <v>569</v>
-      </c>
-      <c r="B73" t="s" s="4">
-        <v>570</v>
       </c>
       <c r="C73" s="21"/>
       <c r="D73" s="20"/>
@@ -31368,10 +31365,10 @@
     </row>
     <row r="74" ht="30" customHeight="1">
       <c r="A74" t="s" s="4">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B74" t="s" s="4">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C74" s="21"/>
       <c r="D74" s="20"/>
@@ -31379,10 +31376,10 @@
     </row>
     <row r="75" ht="30" customHeight="1">
       <c r="A75" t="s" s="4">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B75" t="s" s="4">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C75" s="21"/>
       <c r="D75" s="20"/>
@@ -31390,10 +31387,10 @@
     </row>
     <row r="76" ht="30" customHeight="1">
       <c r="A76" t="s" s="4">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B76" t="s" s="4">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C76" s="21"/>
       <c r="D76" s="20"/>
@@ -31401,10 +31398,10 @@
     </row>
     <row r="77" ht="30" customHeight="1">
       <c r="A77" t="s" s="4">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B77" t="s" s="4">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C77" s="21"/>
       <c r="D77" s="20"/>
@@ -31412,10 +31409,10 @@
     </row>
     <row r="78" ht="30" customHeight="1">
       <c r="A78" t="s" s="4">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B78" t="s" s="4">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C78" s="21"/>
       <c r="D78" s="20"/>
@@ -31423,10 +31420,10 @@
     </row>
     <row r="79" ht="30" customHeight="1">
       <c r="A79" t="s" s="4">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B79" t="s" s="4">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C79" s="21"/>
       <c r="D79" s="20"/>
@@ -31434,10 +31431,10 @@
     </row>
     <row r="80" ht="30" customHeight="1">
       <c r="A80" t="s" s="4">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B80" t="s" s="4">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C80" s="21"/>
       <c r="D80" s="20"/>
@@ -31445,10 +31442,10 @@
     </row>
     <row r="81" ht="30" customHeight="1">
       <c r="A81" t="s" s="4">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B81" t="s" s="4">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C81" s="21"/>
       <c r="D81" s="20"/>
@@ -31456,10 +31453,10 @@
     </row>
     <row r="82" ht="30" customHeight="1">
       <c r="A82" t="s" s="4">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B82" t="s" s="4">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C82" s="21"/>
       <c r="D82" s="20"/>
@@ -31467,10 +31464,10 @@
     </row>
     <row r="83" ht="30" customHeight="1">
       <c r="A83" t="s" s="4">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B83" t="s" s="4">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C83" s="21"/>
       <c r="D83" s="20"/>
@@ -31478,10 +31475,10 @@
     </row>
     <row r="84" ht="30" customHeight="1">
       <c r="A84" t="s" s="4">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B84" t="s" s="4">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C84" s="21"/>
       <c r="D84" s="20"/>
@@ -31489,10 +31486,10 @@
     </row>
     <row r="85" ht="30" customHeight="1">
       <c r="A85" t="s" s="4">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B85" t="s" s="4">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C85" s="21"/>
       <c r="D85" s="20"/>
@@ -31500,10 +31497,10 @@
     </row>
     <row r="86" ht="30" customHeight="1">
       <c r="A86" t="s" s="4">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B86" t="s" s="4">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C86" s="21"/>
       <c r="D86" s="20"/>
@@ -31511,10 +31508,10 @@
     </row>
     <row r="87" ht="30" customHeight="1">
       <c r="A87" t="s" s="4">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B87" t="s" s="4">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C87" s="21"/>
       <c r="D87" s="20"/>
@@ -31544,7 +31541,7 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="20"/>
@@ -31562,7 +31559,7 @@
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="20"/>
@@ -31571,7 +31568,7 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" t="s" s="4">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="20"/>
@@ -31580,7 +31577,7 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="20"/>

--- a/core/api/tests/files/Test_BP2025-2027_invalid_template.xlsx
+++ b/core/api/tests/files/Test_BP2025-2027_invalid_template.xlsx
@@ -69,52 +69,52 @@
     <t xml:space="preserve">Required by Model</t>
   </si>
   <si>
-    <t xml:space="preserve">Value ($000) 2024 Adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODP 2025 Adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT for HFC 2025 Adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO₂-eq 2025 Adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value ($000) 2026 Adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODP 2026 Adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT for HFC 2026 Adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO₂-eq 2026 Adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value ($000) 2027 Adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODP 2027 Adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT for HFC 2027 Adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO₂-eq 2027 Adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value ($000) After 2027 Adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODP After 2027 Adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT for HFC After 2027 Adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO₂-eq After 2027 Adjusted</t>
+    <t xml:space="preserve">Value ($000) 2024 adjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODP 2025 adjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT for HFC 2025 adjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2-EQ 2025 adjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value ($000) 2026 adjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODP 2026 adjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT for HFC 2026 adjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO₂-eq 2026 adjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value ($000) 2027 adjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODP 2027 adjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT for HFC 2027 adjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2-EQ 2027 adjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value ($000) after 2027 adjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODP after 2027 adjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT for HFC after 2027 adjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2-EQ after 2027 adjusted</t>
   </si>
   <si>
     <t xml:space="preserve">Project Status (A/P)</t>
@@ -2000,6 +2000,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri-Bold"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2430,8 +2431,8 @@
   </sheetPr>
   <dimension ref="A1:AH652"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC6" activeCellId="0" sqref="AC6"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W4" activeCellId="0" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/core/api/tests/files/Test_BP2025-2027_invalid_template.xlsx
+++ b/core/api/tests/files/Test_BP2025-2027_invalid_template.xlsx
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Agency</t>
   </si>
   <si>
-    <t xml:space="preserve">HCFC Status</t>
+    <t xml:space="preserve">Status</t>
   </si>
   <si>
     <t xml:space="preserve">Type</t>
@@ -2431,8 +2431,8 @@
   </sheetPr>
   <dimension ref="A1:AH652"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W4" activeCellId="0" sqref="W4"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/core/api/tests/files/Test_BP2025-2027_invalid_template.xlsx
+++ b/core/api/tests/files/Test_BP2025-2027_invalid_template.xlsx
@@ -69,52 +69,236 @@
     <t xml:space="preserve">Required by Model</t>
   </si>
   <si>
-    <t xml:space="preserve">Value ($000) 2024 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODP 2025 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT for HFC 2025 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2-EQ 2025 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value ($000) 2026 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODP 2026 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT for HFC 2026 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO₂-eq 2026 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value ($000) 2027 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODP 2027 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT for HFC 2027 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2-EQ 2027 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value ($000) after 2027 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODP after 2027 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT for HFC after 2027 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2-EQ after 2027 adjusted</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri-Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Value </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri-Bold"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(US $)</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri-Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2024</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ODP 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT for HFC 2025</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri-Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CO2-EQ 2025 </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri-Bold"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">tonnes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri-Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Value </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri-Bold"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(US $)</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri-Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2026</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ODP 2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT for HFC 2026</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri-Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CO₂-eq 2026 </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri-Bold"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">tonnes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri-Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Value </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri-Bold"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(US $)</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri-Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2027</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ODP 2027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT for HFC 2027</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri-Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CO2-EQ 2027 </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri-Bold"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">tonnes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri-Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Value </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri-Bold"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(US $)</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri-Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> after 2027</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ODP after 2027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT for HFC after 2027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2-EQ after 2027</t>
   </si>
   <si>
     <t xml:space="preserve">Project Status (A/P)</t>
@@ -1972,7 +2156,7 @@
     <numFmt numFmtId="166" formatCode="[$$-409]###,###,##0.00#############"/>
     <numFmt numFmtId="167" formatCode="###,###,##0.00#############"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2008,6 +2192,13 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri-Bold"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2188,7 +2379,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2431,8 +2622,8 @@
   </sheetPr>
   <dimension ref="A1:AH652"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC4" activeCellId="0" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/core/api/tests/files/Test_BP2025-2027_invalid_template.xlsx
+++ b/core/api/tests/files/Test_BP2025-2027_invalid_template.xlsx
@@ -69,38 +69,7 @@
     <t xml:space="preserve">Required by Model</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri-Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Value </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri-Bold"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">(US $)</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri-Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2024</t>
-    </r>
+    <t xml:space="preserve">Value (US $) 2024</t>
   </si>
   <si>
     <t xml:space="preserve">ODP 2025</t>
@@ -109,61 +78,10 @@
     <t xml:space="preserve">MT for HFC 2025</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri-Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">CO2-EQ 2025 </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri-Bold"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">tonnes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri-Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Value </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri-Bold"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">(US $)</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri-Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2026</t>
-    </r>
+    <t xml:space="preserve">CO₂-eq 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value (US $) 2026</t>
   </si>
   <si>
     <t xml:space="preserve">ODP 2026</t>
@@ -172,61 +90,10 @@
     <t xml:space="preserve">MT for HFC 2026</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri-Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">CO₂-eq 2026 </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri-Bold"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">tonnes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri-Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Value </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri-Bold"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">(US $)</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri-Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2027</t>
-    </r>
+    <t xml:space="preserve">CO₂-eq 2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value (US $) 2027</t>
   </si>
   <si>
     <t xml:space="preserve">ODP 2027</t>
@@ -235,61 +102,10 @@
     <t xml:space="preserve">MT for HFC 2027</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri-Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">CO2-EQ 2027 </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri-Bold"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">tonnes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri-Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Value </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri-Bold"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">(US $)</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri-Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> after 2027</t>
-    </r>
+    <t xml:space="preserve">CO₂-eq 2027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value (US $) after 2027</t>
   </si>
   <si>
     <t xml:space="preserve">ODP after 2027</t>
@@ -298,7 +114,7 @@
     <t xml:space="preserve">MT for HFC after 2027</t>
   </si>
   <si>
-    <t xml:space="preserve">CO2-EQ after 2027</t>
+    <t xml:space="preserve">CO₂-eq after 2027</t>
   </si>
   <si>
     <t xml:space="preserve">Project Status (A/P)</t>
@@ -2156,7 +1972,7 @@
     <numFmt numFmtId="166" formatCode="[$$-409]###,###,##0.00#############"/>
     <numFmt numFmtId="167" formatCode="###,###,##0.00#############"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2192,13 +2008,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri-Bold"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2379,7 +2188,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2622,7 +2431,7 @@
   </sheetPr>
   <dimension ref="A1:AH652"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AC4" activeCellId="0" sqref="AC4"/>
     </sheetView>
   </sheetViews>
